--- a/data/raw/CationExtractions_raw.xlsx
+++ b/data/raw/CationExtractions_raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Code/Soil_Analyses/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA493C03-00BE-6A4C-A031-BC713B5B1109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82FED10-5F8B-0144-8A45-D7CE3340C54C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16500" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="89">
   <si>
     <t>&lt; 0.080</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Lab_id</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>Blank</t>
   </si>
   <si>
@@ -104,6 +101,198 @@
   </si>
   <si>
     <t>S_mgL</t>
+  </si>
+  <si>
+    <t>pedon</t>
+  </si>
+  <si>
+    <t>horizon</t>
+  </si>
+  <si>
+    <t>42_2_PFM</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>42_3_PFM</t>
+  </si>
+  <si>
+    <t>Oa</t>
+  </si>
+  <si>
+    <t>Bhs1</t>
+  </si>
+  <si>
+    <t>Bhs2</t>
+  </si>
+  <si>
+    <t>Bhs3</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>42_4_PFM</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Bh</t>
+  </si>
+  <si>
+    <t>42_5_V5.1</t>
+  </si>
+  <si>
+    <t>Bhs</t>
+  </si>
+  <si>
+    <t>Bh1</t>
+  </si>
+  <si>
+    <t>Bh2</t>
+  </si>
+  <si>
+    <t>52_2_PFM</t>
+  </si>
+  <si>
+    <t>52_3_PFM</t>
+  </si>
+  <si>
+    <t>52_4_PFM</t>
+  </si>
+  <si>
+    <t>52_4_X4.2</t>
+  </si>
+  <si>
+    <t>Bs</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>86_2_PFM</t>
+  </si>
+  <si>
+    <t>86_3_PFM</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>86_4_PFM</t>
+  </si>
+  <si>
+    <t>86_5_W5.1</t>
+  </si>
+  <si>
+    <t>Bhs2.1</t>
+  </si>
+  <si>
+    <t>Bhs2.2</t>
+  </si>
+  <si>
+    <t>52_3_X3.1</t>
+  </si>
+  <si>
+    <t>BC1</t>
+  </si>
+  <si>
+    <t>BC2</t>
+  </si>
+  <si>
+    <t>D1-2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>52_2_X2.1</t>
+  </si>
+  <si>
+    <t>E1.1</t>
+  </si>
+  <si>
+    <t>E1.2</t>
+  </si>
+  <si>
+    <t>42_2_V2.1</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>86_3_W3.2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Bhs3.1</t>
+  </si>
+  <si>
+    <t>Bhs3.2</t>
+  </si>
+  <si>
+    <t>86_4_W4.1</t>
+  </si>
+  <si>
+    <t>Bs1</t>
+  </si>
+  <si>
+    <t>Bs2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>42_4_V4.1</t>
+  </si>
+  <si>
+    <t>52_4_X4.1</t>
+  </si>
+  <si>
+    <t>Bs2.1</t>
+  </si>
+  <si>
+    <t>Bs2.2</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>86_2_W2.1</t>
+  </si>
+  <si>
+    <t>86_2_W2.2</t>
+  </si>
+  <si>
+    <t>42_3_V3.1</t>
+  </si>
+  <si>
+    <t>Bhs3.3</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>Bs3</t>
   </si>
 </sst>
 </file>
@@ -114,7 +303,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +358,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,6 +458,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -260,17 +485,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -587,1950 +812,2239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB117DD-7230-9241-B114-EEEE02930CE9}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="18"/>
-    <col min="11" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="11" width="10.83203125" style="18"/>
+    <col min="12" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
         <v>9.4E-2</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
         <v>0.33500000000000002</v>
       </c>
-      <c r="J2" s="17">
+      <c r="K2" s="17">
         <v>0.41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="B3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
         <v>6.8680000000000003</v>
       </c>
-      <c r="E3" s="16">
+      <c r="F3" s="16">
         <v>0.86</v>
       </c>
-      <c r="F3" s="16">
+      <c r="G3" s="16">
         <v>1.0429999999999999</v>
       </c>
-      <c r="G3" s="17">
+      <c r="H3" s="17">
         <v>0.41099999999999998</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17">
+      <c r="I3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
         <v>1.4850000000000001</v>
       </c>
-      <c r="J3" s="17">
+      <c r="K3" s="17">
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="B4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
         <v>4.2569999999999997</v>
       </c>
-      <c r="E4" s="16">
+      <c r="F4" s="16">
         <v>0.48099999999999998</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
         <v>0.22</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="I4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
         <v>1.0640000000000001</v>
       </c>
-      <c r="J4" s="17">
+      <c r="K4" s="17">
         <v>0.627</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16">
+      <c r="B5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="16">
         <v>5.62</v>
       </c>
-      <c r="D5" s="16">
+      <c r="E5" s="16">
         <v>4.3460000000000001</v>
       </c>
-      <c r="E5" s="16">
+      <c r="F5" s="16">
         <v>8.3089999999999993</v>
       </c>
-      <c r="F5" s="16">
+      <c r="G5" s="16">
         <v>17.856999999999999</v>
       </c>
-      <c r="G5" s="17">
+      <c r="H5" s="17">
         <v>1.87</v>
       </c>
-      <c r="H5" s="17">
+      <c r="I5" s="17">
         <v>5.39</v>
       </c>
-      <c r="I5" s="17">
+      <c r="J5" s="17">
         <v>3.5209999999999999</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K5" s="17">
         <v>6.133</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16">
+      <c r="B6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="16">
         <v>1.208</v>
       </c>
-      <c r="D6" s="16">
+      <c r="E6" s="16">
         <v>10.504</v>
       </c>
-      <c r="E6" s="16">
+      <c r="F6" s="16">
         <v>1.046</v>
       </c>
-      <c r="F6" s="16">
+      <c r="G6" s="16">
         <v>3.089</v>
       </c>
-      <c r="G6" s="17">
+      <c r="H6" s="17">
         <v>0.35599999999999998</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
+      <c r="I6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
         <v>2.5550000000000002</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K6" s="17">
         <v>2.1970000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16">
+      <c r="B7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="16">
         <v>4.0309999999999997</v>
       </c>
-      <c r="D7" s="16">
+      <c r="E7" s="16">
         <v>2.6720000000000002</v>
       </c>
-      <c r="E7" s="16">
+      <c r="F7" s="16">
         <v>0.93</v>
       </c>
-      <c r="F7" s="16">
+      <c r="G7" s="16">
         <v>1.3759999999999999</v>
       </c>
-      <c r="G7" s="17">
+      <c r="H7" s="17">
         <v>0.34599999999999997</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="I7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
         <v>1.827</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K7" s="17">
         <v>2.3439999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16">
+      <c r="B8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="16">
         <v>1.587</v>
       </c>
-      <c r="D8" s="16">
+      <c r="E8" s="16">
         <v>3.073</v>
       </c>
-      <c r="E8" s="16">
+      <c r="F8" s="16">
         <v>1.016</v>
       </c>
-      <c r="F8" s="16">
+      <c r="G8" s="16">
         <v>1.5109999999999999</v>
       </c>
-      <c r="G8" s="17">
+      <c r="H8" s="17">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="I8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
         <v>1.93</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K8" s="17">
         <v>2.7480000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
+      <c r="B9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16">
         <v>1.839</v>
       </c>
-      <c r="D9" s="16">
+      <c r="E9" s="16">
         <v>4.6689999999999996</v>
       </c>
-      <c r="E9" s="16">
+      <c r="F9" s="16">
         <v>1.198</v>
       </c>
-      <c r="F9" s="16">
+      <c r="G9" s="16">
         <v>2.0990000000000002</v>
       </c>
-      <c r="G9" s="17">
+      <c r="H9" s="17">
         <v>0.50600000000000001</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="I9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
         <v>2.14</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K9" s="17">
         <v>2.923</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16">
+      <c r="B10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="16">
         <v>6.6749999999999998</v>
       </c>
-      <c r="D10" s="16">
+      <c r="E10" s="16">
         <v>2.226</v>
       </c>
-      <c r="E10" s="16">
+      <c r="F10" s="16">
         <v>52.545999999999999</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="16">
         <v>23.695</v>
       </c>
-      <c r="G10" s="17">
+      <c r="H10" s="17">
         <v>1.149</v>
       </c>
-      <c r="H10" s="17">
+      <c r="I10" s="17">
         <v>16.163</v>
       </c>
-      <c r="I10" s="17">
+      <c r="J10" s="17">
         <v>6.4189999999999996</v>
       </c>
-      <c r="J10" s="17">
+      <c r="K10" s="17">
         <v>6.64</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
         <v>2.5640000000000001</v>
       </c>
-      <c r="E11" s="16">
+      <c r="F11" s="16">
         <v>3.0680000000000001</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="16">
         <v>4.82</v>
       </c>
-      <c r="G11" s="17">
+      <c r="H11" s="17">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
+      <c r="I11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
         <v>1.127</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K11" s="17">
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16" t="s">
-        <v>0</v>
+      <c r="B12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
         <v>0.114</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
+      <c r="I12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
         <v>0.315</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K12" s="17">
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
-        <v>12</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
         <v>59.514000000000003</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="16">
         <v>2.4420000000000002</v>
       </c>
-      <c r="F13" s="16">
+      <c r="G13" s="16">
         <v>7.5609999999999999</v>
       </c>
-      <c r="G13" s="17">
+      <c r="H13" s="17">
         <v>1.069</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I13" s="17">
         <v>1.3080000000000001</v>
       </c>
-      <c r="I13" s="17">
+      <c r="J13" s="17">
         <v>2.0760000000000001</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>3.6459999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
         <v>15.175000000000001</v>
       </c>
-      <c r="E14" s="16">
+      <c r="F14" s="16">
         <v>1.581</v>
       </c>
-      <c r="F14" s="16">
+      <c r="G14" s="16">
         <v>4.5190000000000001</v>
       </c>
-      <c r="G14" s="17">
+      <c r="H14" s="17">
         <v>0.39500000000000002</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="I14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
         <v>1.1160000000000001</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K14" s="17">
         <v>2.512</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="B15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
         <v>1.367</v>
       </c>
-      <c r="E15" s="16">
+      <c r="F15" s="16">
         <v>0.84099999999999997</v>
       </c>
-      <c r="F15" s="16">
+      <c r="G15" s="16">
         <v>1.0549999999999999</v>
       </c>
-      <c r="G15" s="17">
+      <c r="H15" s="17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="I15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
         <v>0.626</v>
       </c>
-      <c r="J15" s="17">
+      <c r="K15" s="17">
         <v>1.613</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="B16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
         <v>0.55600000000000005</v>
       </c>
-      <c r="E16" s="16">
+      <c r="F16" s="16">
         <v>0.59799999999999998</v>
       </c>
-      <c r="F16" s="16">
+      <c r="G16" s="16">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G16" s="17">
+      <c r="H16" s="17">
         <v>0.191</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="I16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
         <v>0.53500000000000003</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="17">
         <v>1.24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16">
+      <c r="B17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="16">
         <v>2.33</v>
       </c>
-      <c r="D17" s="16">
+      <c r="E17" s="16">
         <v>0.94799999999999995</v>
       </c>
-      <c r="E17" s="16">
+      <c r="F17" s="16">
         <v>2.6890000000000001</v>
       </c>
-      <c r="F17" s="16">
+      <c r="G17" s="16">
         <v>4.867</v>
       </c>
-      <c r="G17" s="17">
+      <c r="H17" s="17">
         <v>0.73699999999999999</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
+      <c r="I17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
         <v>1.9730000000000001</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="17">
         <v>4.7610000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16">
+      <c r="B18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="16">
         <v>0.28100000000000003</v>
       </c>
-      <c r="D18" s="16">
+      <c r="E18" s="16">
         <v>0.879</v>
       </c>
-      <c r="E18" s="16">
+      <c r="F18" s="16">
         <v>1.9470000000000001</v>
       </c>
-      <c r="F18" s="16">
+      <c r="G18" s="16">
         <v>1.667</v>
       </c>
-      <c r="G18" s="17">
+      <c r="H18" s="17">
         <v>0.49099999999999999</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
+      <c r="I18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
         <v>0.81799999999999995</v>
       </c>
-      <c r="J18" s="17">
+      <c r="K18" s="17">
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
         <v>1.1160000000000001</v>
       </c>
-      <c r="E19" s="16">
+      <c r="F19" s="16">
         <v>1.48</v>
       </c>
-      <c r="F19" s="16">
+      <c r="G19" s="16">
         <v>1.2749999999999999</v>
       </c>
-      <c r="G19" s="17">
+      <c r="H19" s="17">
         <v>0.39</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
+      <c r="I19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
         <v>0.64</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>2.5779999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16">
+      <c r="B20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="16">
         <v>0.24099999999999999</v>
       </c>
-      <c r="D20" s="16">
+      <c r="E20" s="16">
         <v>8.0250000000000004</v>
       </c>
-      <c r="E20" s="16">
+      <c r="F20" s="16">
         <v>2.3260000000000001</v>
       </c>
-      <c r="F20" s="16">
+      <c r="G20" s="16">
         <v>3.9529999999999998</v>
       </c>
-      <c r="G20" s="17">
+      <c r="H20" s="17">
         <v>0.47399999999999998</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
+      <c r="I20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
         <v>1.81</v>
       </c>
-      <c r="J20" s="17">
+      <c r="K20" s="17">
         <v>1.7969999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16">
+      <c r="B21" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="16">
         <v>0.48299999999999998</v>
       </c>
-      <c r="D21" s="16">
+      <c r="E21" s="16">
         <v>5.4459999999999997</v>
       </c>
-      <c r="E21" s="16">
+      <c r="F21" s="16">
         <v>4.968</v>
       </c>
-      <c r="F21" s="16">
+      <c r="G21" s="16">
         <v>22.234999999999999</v>
       </c>
-      <c r="G21" s="17">
+      <c r="H21" s="17">
         <v>3.8170000000000002</v>
       </c>
-      <c r="H21" s="17">
+      <c r="I21" s="17">
         <v>7.165</v>
       </c>
-      <c r="I21" s="17">
+      <c r="J21" s="17">
         <v>4.399</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>8.3439999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
-        <v>21</v>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="16" t="s">
-        <v>0</v>
-      </c>
+      <c r="C22" s="15"/>
       <c r="D22" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
         <v>0.13800000000000001</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
+      <c r="I22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
         <v>0.32600000000000001</v>
       </c>
-      <c r="J22" s="17">
+      <c r="K22" s="17">
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="B23" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
         <v>6.9509999999999996</v>
       </c>
-      <c r="E23" s="16">
+      <c r="F23" s="16">
         <v>2.339</v>
       </c>
-      <c r="F23" s="16">
+      <c r="G23" s="16">
         <v>6.0430000000000001</v>
       </c>
-      <c r="G23" s="17">
+      <c r="H23" s="17">
         <v>0.85899999999999999</v>
       </c>
-      <c r="H23" s="17">
+      <c r="I23" s="17">
         <v>1.1279999999999999</v>
       </c>
-      <c r="I23" s="17">
+      <c r="J23" s="17">
         <v>2.0939999999999999</v>
       </c>
-      <c r="J23" s="17">
+      <c r="K23" s="17">
         <v>2.9039999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="B24" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
         <v>4.21</v>
       </c>
-      <c r="E24" s="16">
+      <c r="F24" s="16">
         <v>1.0169999999999999</v>
       </c>
-      <c r="F24" s="16">
+      <c r="G24" s="16">
         <v>0.877</v>
       </c>
-      <c r="G24" s="17">
+      <c r="H24" s="17">
         <v>0.307</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
+      <c r="I24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
         <v>1.0389999999999999</v>
       </c>
-      <c r="J24" s="17">
+      <c r="K24" s="17">
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17">
+      <c r="B25" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="17">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D25" s="17">
+      <c r="E25" s="17">
         <v>3.5219999999999998</v>
       </c>
-      <c r="E25" s="17">
+      <c r="F25" s="17">
         <v>2.2839999999999998</v>
       </c>
-      <c r="F25" s="17">
+      <c r="G25" s="17">
         <v>4.516</v>
       </c>
-      <c r="G25" s="17">
+      <c r="H25" s="17">
         <v>0.67900000000000005</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
+      <c r="I25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
         <v>1.129</v>
       </c>
-      <c r="J25" s="17">
+      <c r="K25" s="17">
         <v>2.9860000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
+      <c r="B26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
         <v>1.9430000000000001</v>
       </c>
-      <c r="E26" s="17">
+      <c r="F26" s="17">
         <v>1.5940000000000001</v>
       </c>
-      <c r="F26" s="17">
+      <c r="G26" s="17">
         <v>2.254</v>
       </c>
-      <c r="G26" s="17">
+      <c r="H26" s="17">
         <v>0.79900000000000004</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
+      <c r="I26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
         <v>0.874</v>
       </c>
-      <c r="J26" s="17">
+      <c r="K26" s="17">
         <v>2.4689999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17">
+      <c r="B27" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="17">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D27" s="17">
+      <c r="E27" s="17">
         <v>0.44800000000000001</v>
       </c>
-      <c r="E27" s="17">
+      <c r="F27" s="17">
         <v>11.458</v>
       </c>
-      <c r="F27" s="17">
+      <c r="G27" s="17">
         <v>34.899000000000001</v>
       </c>
-      <c r="G27" s="17">
+      <c r="H27" s="17">
         <v>2.5139999999999998</v>
       </c>
-      <c r="H27" s="17">
+      <c r="I27" s="17">
         <v>20.706</v>
       </c>
-      <c r="I27" s="17">
+      <c r="J27" s="17">
         <v>12.426</v>
       </c>
-      <c r="J27" s="17">
+      <c r="K27" s="17">
         <v>11.587999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
+      <c r="B28" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
         <v>0.112</v>
       </c>
-      <c r="E28" s="17">
+      <c r="F28" s="17">
         <v>0.41</v>
       </c>
-      <c r="F28" s="17">
+      <c r="G28" s="17">
         <v>0.30499999999999999</v>
       </c>
-      <c r="G28" s="17">
+      <c r="H28" s="17">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
+      <c r="I28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
         <v>0.52800000000000002</v>
       </c>
-      <c r="J28" s="17">
+      <c r="K28" s="17">
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="B29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
         <v>16.87</v>
       </c>
-      <c r="E29" s="17">
+      <c r="F29" s="17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="F29" s="17">
+      <c r="G29" s="17">
         <v>2.6909999999999998</v>
       </c>
-      <c r="G29" s="17">
+      <c r="H29" s="17">
         <v>0.77300000000000002</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
+      <c r="I29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
         <v>0.61799999999999999</v>
       </c>
-      <c r="J29" s="17">
+      <c r="K29" s="17">
         <v>1.663</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="B30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
         <v>0.48</v>
       </c>
-      <c r="E30" s="17">
+      <c r="F30" s="17">
         <v>0.628</v>
       </c>
-      <c r="F30" s="17">
+      <c r="G30" s="17">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G30" s="17">
+      <c r="H30" s="17">
         <v>0.26700000000000002</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
+      <c r="I30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
         <v>0.47</v>
       </c>
-      <c r="J30" s="17">
+      <c r="K30" s="17">
         <v>1.5640000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="B31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
         <v>0.42099999999999999</v>
       </c>
-      <c r="E31" s="17">
+      <c r="F31" s="17">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="G31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
         <v>0.154</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
+      <c r="I31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
         <v>0.39100000000000001</v>
       </c>
-      <c r="J31" s="17">
+      <c r="K31" s="17">
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17">
+      <c r="B32" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
         <v>5.0789999999999997</v>
       </c>
-      <c r="E32" s="17">
+      <c r="F32" s="17">
         <v>33.689</v>
       </c>
-      <c r="F32" s="17">
+      <c r="G32" s="17">
         <v>12.962</v>
       </c>
-      <c r="G32" s="17">
+      <c r="H32" s="17">
         <v>1.27</v>
       </c>
-      <c r="H32" s="17">
+      <c r="I32" s="17">
         <v>14.461</v>
       </c>
-      <c r="I32" s="17">
+      <c r="J32" s="17">
         <v>2.4260000000000002</v>
       </c>
-      <c r="J32" s="17">
+      <c r="K32" s="17">
         <v>7.0439999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
-        <v>32</v>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B33" s="15"/>
-      <c r="C33" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="C33" s="15"/>
       <c r="D33" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G33" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
         <v>0.30299999999999999</v>
       </c>
-      <c r="J33" s="17">
+      <c r="K33" s="17">
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="17" t="s">
-        <v>0</v>
+      <c r="B34" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
         <v>0.77400000000000002</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G34" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
         <v>0.35099999999999998</v>
       </c>
-      <c r="J34" s="17">
+      <c r="K34" s="17">
         <v>0.43</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="17">
+      <c r="B35" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17">
         <v>1.07</v>
       </c>
-      <c r="E35" s="17">
+      <c r="F35" s="17">
         <v>6.63</v>
       </c>
-      <c r="F35" s="17">
+      <c r="G35" s="17">
         <v>10.367000000000001</v>
       </c>
-      <c r="G35" s="17">
+      <c r="H35" s="17">
         <v>1.038</v>
       </c>
-      <c r="H35" s="17">
+      <c r="I35" s="17">
         <v>2.5670000000000002</v>
       </c>
-      <c r="I35" s="17">
+      <c r="J35" s="17">
         <v>1.556</v>
       </c>
-      <c r="J35" s="17">
+      <c r="K35" s="17">
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="17">
+      <c r="B36" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="17">
         <v>1.9430000000000001</v>
       </c>
-      <c r="E36" s="17">
+      <c r="F36" s="17">
         <v>5.218</v>
       </c>
-      <c r="F36" s="17">
+      <c r="G36" s="17">
         <v>9.0960000000000001</v>
       </c>
-      <c r="G36" s="17">
+      <c r="H36" s="17">
         <v>1.0489999999999999</v>
       </c>
-      <c r="H36" s="17">
+      <c r="I36" s="17">
         <v>2.33</v>
       </c>
-      <c r="I36" s="17">
+      <c r="J36" s="17">
         <v>2.0569999999999999</v>
       </c>
-      <c r="J36" s="17">
+      <c r="K36" s="17">
         <v>4.4989999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="17">
+      <c r="B37" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="17">
         <v>2.3319999999999999</v>
       </c>
-      <c r="E37" s="17">
+      <c r="F37" s="17">
         <v>2.4980000000000002</v>
       </c>
-      <c r="F37" s="17">
+      <c r="G37" s="17">
         <v>1.25</v>
       </c>
-      <c r="G37" s="17">
+      <c r="H37" s="17">
         <v>0.43</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
+      <c r="I37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
         <v>0.71299999999999997</v>
       </c>
-      <c r="J37" s="17">
+      <c r="K37" s="17">
         <v>2.1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="17">
+      <c r="B38" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="17">
         <v>3.5289999999999999</v>
       </c>
-      <c r="E38" s="17">
+      <c r="F38" s="17">
         <v>0.85099999999999998</v>
       </c>
-      <c r="F38" s="17">
+      <c r="G38" s="17">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G38" s="17">
+      <c r="H38" s="17">
         <v>0.16200000000000001</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
+      <c r="I38" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
         <v>0.51200000000000001</v>
       </c>
-      <c r="J38" s="17">
+      <c r="K38" s="17">
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="B39" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
         <v>0.56899999999999995</v>
       </c>
-      <c r="E39" s="17">
+      <c r="F39" s="17">
         <v>26.905000000000001</v>
       </c>
-      <c r="F39" s="17">
+      <c r="G39" s="17">
         <v>12.632999999999999</v>
       </c>
-      <c r="G39" s="17">
+      <c r="H39" s="17">
         <v>1.2490000000000001</v>
       </c>
-      <c r="H39" s="17">
+      <c r="I39" s="17">
         <v>6.92</v>
       </c>
-      <c r="I39" s="17">
+      <c r="J39" s="17">
         <v>0.81599999999999995</v>
       </c>
-      <c r="J39" s="17">
+      <c r="K39" s="17">
         <v>3.339</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="17">
+      <c r="B40" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
         <v>0.38100000000000001</v>
       </c>
-      <c r="E40" s="17">
+      <c r="F40" s="17">
         <v>4.3890000000000002</v>
       </c>
-      <c r="F40" s="17">
+      <c r="G40" s="17">
         <v>1.048</v>
       </c>
-      <c r="G40" s="17">
+      <c r="H40" s="17">
         <v>0.185</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
+      <c r="I40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J40" s="17">
+      <c r="K40" s="17">
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="17">
+      <c r="B41" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="17">
         <v>39.302</v>
       </c>
-      <c r="E41" s="17">
+      <c r="F41" s="17">
         <v>8.2360000000000007</v>
       </c>
-      <c r="F41" s="17">
+      <c r="G41" s="17">
         <v>3.6789999999999998</v>
       </c>
-      <c r="G41" s="17">
+      <c r="H41" s="17">
         <v>0.36799999999999999</v>
       </c>
-      <c r="H41" s="17">
+      <c r="I41" s="17">
         <v>0.109</v>
       </c>
-      <c r="I41" s="17">
+      <c r="J41" s="17">
         <v>1.1040000000000001</v>
       </c>
-      <c r="J41" s="17">
+      <c r="K41" s="17">
         <v>2.6150000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="17">
+      <c r="B42" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
         <v>3.141</v>
       </c>
-      <c r="E42" s="17">
+      <c r="F42" s="17">
         <v>2.4710000000000001</v>
       </c>
-      <c r="F42" s="17">
+      <c r="G42" s="17">
         <v>0.442</v>
       </c>
-      <c r="G42" s="17">
+      <c r="H42" s="17">
         <v>0.18</v>
       </c>
-      <c r="H42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="17">
+      <c r="I42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J42" s="17">
+      <c r="K42" s="17">
         <v>2.121</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="17">
+      <c r="B43" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="17">
         <v>1.72</v>
       </c>
-      <c r="E43" s="17">
+      <c r="F43" s="17">
         <v>2.7389999999999999</v>
       </c>
-      <c r="F43" s="17">
+      <c r="G43" s="17">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G43" s="17">
+      <c r="H43" s="17">
         <v>0.54600000000000004</v>
       </c>
-      <c r="H43" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="17">
+      <c r="I43" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
         <v>0.60899999999999999</v>
       </c>
-      <c r="J43" s="17">
+      <c r="K43" s="17">
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
-        <v>43</v>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="C44" s="15"/>
       <c r="D44" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17">
         <v>0.104</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G44" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
         <v>0.29899999999999999</v>
       </c>
-      <c r="J44" s="17">
+      <c r="K44" s="17">
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="17">
+      <c r="B45" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="17">
         <v>4.0860000000000003</v>
       </c>
-      <c r="D45" s="17">
+      <c r="E45" s="17">
         <v>0.88300000000000001</v>
       </c>
-      <c r="E45" s="17">
+      <c r="F45" s="17">
         <v>24.902999999999999</v>
       </c>
-      <c r="F45" s="17">
+      <c r="G45" s="17">
         <v>38.643000000000001</v>
       </c>
-      <c r="G45" s="17">
+      <c r="H45" s="17">
         <v>2.6480000000000001</v>
       </c>
-      <c r="H45" s="17">
+      <c r="I45" s="17">
         <v>10.859</v>
       </c>
-      <c r="I45" s="17">
+      <c r="J45" s="17">
         <v>3.7160000000000002</v>
       </c>
-      <c r="J45" s="17">
+      <c r="K45" s="17">
         <v>11.481999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="17">
+      <c r="B46" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
         <v>1.5680000000000001</v>
       </c>
-      <c r="E46" s="17">
+      <c r="F46" s="17">
         <v>6.2610000000000001</v>
       </c>
-      <c r="F46" s="17">
+      <c r="G46" s="17">
         <v>4.2320000000000002</v>
       </c>
-      <c r="G46" s="17">
+      <c r="H46" s="17">
         <v>0.69299999999999995</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="17">
+      <c r="I46" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="17">
         <v>1.1850000000000001</v>
       </c>
-      <c r="J46" s="17">
+      <c r="K46" s="17">
         <v>2.1859999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>46</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17">
+      <c r="B47" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="17">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D47" s="17">
+      <c r="E47" s="17">
         <v>1.9690000000000001</v>
       </c>
-      <c r="E47" s="17">
+      <c r="F47" s="17">
         <v>5.7919999999999998</v>
       </c>
-      <c r="F47" s="17">
+      <c r="G47" s="17">
         <v>2.9870000000000001</v>
       </c>
-      <c r="G47" s="17">
+      <c r="H47" s="17">
         <v>0.58099999999999996</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="17">
+      <c r="I47" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17">
         <v>0.88400000000000001</v>
       </c>
-      <c r="J47" s="17">
+      <c r="K47" s="17">
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="17">
+      <c r="B48" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17">
         <v>1.1759999999999999</v>
       </c>
-      <c r="E48" s="17">
+      <c r="F48" s="17">
         <v>3.0339999999999998</v>
       </c>
-      <c r="F48" s="17">
+      <c r="G48" s="17">
         <v>1.2869999999999999</v>
       </c>
-      <c r="G48" s="17">
+      <c r="H48" s="17">
         <v>0.36899999999999999</v>
       </c>
-      <c r="H48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="17">
+      <c r="I48" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="17">
         <v>0.56399999999999995</v>
       </c>
-      <c r="J48" s="17">
+      <c r="K48" s="17">
         <v>1.3049999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>48</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="17">
+      <c r="B49" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="17">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D49" s="17">
+      <c r="E49" s="17">
         <v>1.92</v>
       </c>
-      <c r="E49" s="17">
+      <c r="F49" s="17">
         <v>7.53</v>
       </c>
-      <c r="F49" s="17">
+      <c r="G49" s="17">
         <v>11.254</v>
       </c>
-      <c r="G49" s="17">
+      <c r="H49" s="17">
         <v>0.55200000000000005</v>
       </c>
-      <c r="H49" s="17">
+      <c r="I49" s="17">
         <v>3.286</v>
       </c>
-      <c r="I49" s="17">
+      <c r="J49" s="17">
         <v>2.927</v>
       </c>
-      <c r="J49" s="17">
+      <c r="K49" s="17">
         <v>5.4870000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <v>49</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="17">
+      <c r="B50" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="17">
         <v>2.1789999999999998</v>
       </c>
-      <c r="E50" s="17">
+      <c r="F50" s="17">
         <v>0.84799999999999998</v>
       </c>
-      <c r="F50" s="17">
+      <c r="G50" s="17">
         <v>1.399</v>
       </c>
-      <c r="G50" s="17">
+      <c r="H50" s="17">
         <v>0.188</v>
       </c>
-      <c r="H50" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I50" s="17">
+      <c r="I50" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="17">
         <v>0.86799999999999999</v>
       </c>
-      <c r="J50" s="17">
+      <c r="K50" s="17">
         <v>1.115</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>50</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="17">
+      <c r="B51" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="17">
         <v>25.356999999999999</v>
       </c>
-      <c r="E51" s="17">
+      <c r="F51" s="17">
         <v>1.8680000000000001</v>
       </c>
-      <c r="F51" s="17">
+      <c r="G51" s="17">
         <v>5.75</v>
       </c>
-      <c r="G51" s="17">
+      <c r="H51" s="17">
         <v>0.39700000000000002</v>
       </c>
-      <c r="H51" s="17">
+      <c r="I51" s="17">
         <v>0.24</v>
       </c>
-      <c r="I51" s="17">
+      <c r="J51" s="17">
         <v>1.4</v>
       </c>
-      <c r="J51" s="17">
+      <c r="K51" s="17">
         <v>2.8220000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>51</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="17">
+      <c r="B52" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
         <v>13.01</v>
       </c>
-      <c r="E52" s="17">
+      <c r="F52" s="17">
         <v>1.6850000000000001</v>
       </c>
-      <c r="F52" s="17">
+      <c r="G52" s="17">
         <v>3.762</v>
       </c>
-      <c r="G52" s="17">
+      <c r="H52" s="17">
         <v>0.51600000000000001</v>
       </c>
-      <c r="H52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="17">
+      <c r="I52" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="17">
         <v>0.60199999999999998</v>
       </c>
-      <c r="J52" s="17">
+      <c r="K52" s="17">
         <v>2.5219999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>52</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="17">
+      <c r="B53" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17">
         <v>4.7290000000000001</v>
       </c>
-      <c r="E53" s="17">
+      <c r="F53" s="17">
         <v>1.034</v>
       </c>
-      <c r="F53" s="17">
+      <c r="G53" s="17">
         <v>2.173</v>
       </c>
-      <c r="G53" s="17">
+      <c r="H53" s="17">
         <v>0.44800000000000001</v>
       </c>
-      <c r="H53" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17">
+      <c r="I53" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="17">
         <v>0.59899999999999998</v>
       </c>
-      <c r="J53" s="17">
+      <c r="K53" s="17">
         <v>2.12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>53</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" s="17">
+      <c r="B54" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="17">
         <v>2.7530000000000001</v>
       </c>
-      <c r="E54" s="17">
+      <c r="F54" s="17">
         <v>1.2310000000000001</v>
       </c>
-      <c r="F54" s="17">
+      <c r="G54" s="17">
         <v>1.206</v>
       </c>
-      <c r="G54" s="17">
+      <c r="H54" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="17">
+      <c r="I54" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="17">
         <v>0.65700000000000003</v>
       </c>
-      <c r="J54" s="17">
+      <c r="K54" s="17">
         <v>2.4529999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="15">
-        <v>54</v>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B55" s="15"/>
-      <c r="C55" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="C55" s="15"/>
       <c r="D55" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="17">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G55" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="17">
         <v>0.30399999999999999</v>
       </c>
-      <c r="J55" s="17">
+      <c r="K55" s="17">
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="17">
+      <c r="B56" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="17">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E56" s="17">
+      <c r="F56" s="17">
         <v>0.77900000000000003</v>
       </c>
-      <c r="F56" s="17">
+      <c r="G56" s="17">
         <v>0.20200000000000001</v>
       </c>
-      <c r="G56" s="17">
+      <c r="H56" s="17">
         <v>0.223</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I56" s="17">
+      <c r="I56" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="17">
         <v>0.53</v>
       </c>
-      <c r="J56" s="17">
+      <c r="K56" s="17">
         <v>1.911</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>56</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="17">
+      <c r="B57" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17">
         <v>0.68400000000000005</v>
       </c>
-      <c r="E57" s="17">
+      <c r="F57" s="17">
         <v>0.49099999999999999</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
+      <c r="G57" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="17">
         <v>0.155</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I57" s="17">
+      <c r="I57" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="17">
         <v>0.501</v>
       </c>
-      <c r="J57" s="17">
+      <c r="K57" s="17">
         <v>1.54</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>57</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="17">
+      <c r="B58" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="17">
         <v>0.88900000000000001</v>
       </c>
-      <c r="D58" s="17">
+      <c r="E58" s="17">
         <v>3.427</v>
       </c>
-      <c r="E58" s="17">
+      <c r="F58" s="17">
         <v>8.0649999999999995</v>
       </c>
-      <c r="F58" s="17">
+      <c r="G58" s="17">
         <v>8.1300000000000008</v>
       </c>
-      <c r="G58" s="17">
+      <c r="H58" s="17">
         <v>2.3660000000000001</v>
       </c>
-      <c r="H58" s="17">
+      <c r="I58" s="17">
         <v>1.5780000000000001</v>
       </c>
-      <c r="I58" s="17">
+      <c r="J58" s="17">
         <v>0.46100000000000002</v>
       </c>
-      <c r="J58" s="17">
+      <c r="K58" s="17">
         <v>0.77900000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>58</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="17">
+      <c r="B59" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17">
         <v>0.93500000000000005</v>
       </c>
-      <c r="E59" s="17">
+      <c r="F59" s="17">
         <v>4.6719999999999997</v>
       </c>
-      <c r="F59" s="17">
+      <c r="G59" s="17">
         <v>0.75600000000000001</v>
       </c>
-      <c r="G59" s="17">
+      <c r="H59" s="17">
         <v>0.82899999999999996</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="17">
+      <c r="I59" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="17">
         <v>0.44500000000000001</v>
       </c>
-      <c r="J59" s="17">
+      <c r="K59" s="17">
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>59</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="17">
+      <c r="B60" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="17">
         <v>3.7450000000000001</v>
       </c>
-      <c r="E60" s="17">
+      <c r="F60" s="17">
         <v>0.80800000000000005</v>
       </c>
-      <c r="F60" s="17">
+      <c r="G60" s="17">
         <v>1.79</v>
       </c>
-      <c r="G60" s="17">
+      <c r="H60" s="17">
         <v>0.13900000000000001</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="17">
+      <c r="I60" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="17">
         <v>1.129</v>
       </c>
-      <c r="J60" s="17">
+      <c r="K60" s="17">
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>60</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="17">
+      <c r="B61" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="17">
         <v>3.1440000000000001</v>
       </c>
-      <c r="E61" s="17">
+      <c r="F61" s="17">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F61" s="17">
+      <c r="G61" s="17">
         <v>0.92700000000000005</v>
       </c>
-      <c r="G61" s="17">
+      <c r="H61" s="17">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="17">
+      <c r="I61" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="17">
         <v>0.96399999999999997</v>
       </c>
-      <c r="J61" s="17">
+      <c r="K61" s="17">
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>61</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="17">
+      <c r="B62" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="17">
         <v>2.1539999999999999</v>
       </c>
-      <c r="E62" s="17">
+      <c r="F62" s="17">
         <v>0.49199999999999999</v>
       </c>
-      <c r="F62" s="17">
+      <c r="G62" s="17">
         <v>0.161</v>
       </c>
-      <c r="G62" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H62" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="17">
         <v>0.71599999999999997</v>
       </c>
-      <c r="J62" s="17">
+      <c r="K62" s="17">
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <v>62</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="17">
+      <c r="B63" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="17">
         <v>55.905999999999999</v>
       </c>
-      <c r="D63" s="17">
+      <c r="E63" s="17">
         <v>7.7380000000000004</v>
       </c>
-      <c r="E63" s="17">
+      <c r="F63" s="17">
         <v>8.0640000000000001</v>
       </c>
-      <c r="F63" s="17">
+      <c r="G63" s="17">
         <v>12.831</v>
       </c>
-      <c r="G63" s="17">
+      <c r="H63" s="17">
         <v>2.0859999999999999</v>
       </c>
-      <c r="H63" s="17">
+      <c r="I63" s="17">
         <v>2.39</v>
       </c>
-      <c r="I63" s="17">
+      <c r="J63" s="17">
         <v>4.6059999999999999</v>
       </c>
-      <c r="J63" s="17">
+      <c r="K63" s="17">
         <v>4.8449999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <v>63</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="17">
+      <c r="B64" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="17">
         <v>2.3079999999999998</v>
       </c>
-      <c r="D64" s="17">
+      <c r="E64" s="17">
         <v>2.6219999999999999</v>
       </c>
-      <c r="E64" s="17">
+      <c r="F64" s="17">
         <v>0.99</v>
       </c>
-      <c r="F64" s="17">
+      <c r="G64" s="17">
         <v>1.5649999999999999</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H64" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="17">
         <v>1.2330000000000001</v>
       </c>
-      <c r="J64" s="17">
+      <c r="K64" s="17">
         <v>1.073</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="15">
-        <v>64</v>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B65" s="15"/>
-      <c r="C65" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="C65" s="15"/>
       <c r="D65" s="17" t="s">
         <v>0</v>
       </c>
@@ -2546,321 +3060,372 @@
       <c r="H65" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="17">
         <v>0.30399999999999999</v>
       </c>
-      <c r="J65" s="17">
+      <c r="K65" s="17">
         <v>0.311</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <v>65</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="17">
+      <c r="B66" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17">
         <v>2.702</v>
       </c>
-      <c r="E66" s="17">
+      <c r="F66" s="17">
         <v>0.436</v>
       </c>
-      <c r="F66" s="17">
+      <c r="G66" s="17">
         <v>0.41899999999999998</v>
       </c>
-      <c r="G66" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H66" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="17">
         <v>1.115</v>
       </c>
-      <c r="J66" s="17">
+      <c r="K66" s="17">
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <v>66</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="17">
+      <c r="B67" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="17">
         <v>0.13100000000000001</v>
       </c>
-      <c r="D67" s="17">
+      <c r="E67" s="17">
         <v>5.32</v>
       </c>
-      <c r="E67" s="17">
+      <c r="F67" s="17">
         <v>0.39400000000000002</v>
       </c>
-      <c r="F67" s="17">
+      <c r="G67" s="17">
         <v>0.52100000000000002</v>
       </c>
-      <c r="G67" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H67" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="17">
         <v>1.492</v>
       </c>
-      <c r="J67" s="17">
+      <c r="K67" s="17">
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <v>67</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="17">
+      <c r="B68" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="17">
         <v>4.3570000000000002</v>
       </c>
-      <c r="E68" s="17">
+      <c r="F68" s="17">
         <v>0.39600000000000002</v>
       </c>
-      <c r="F68" s="17">
+      <c r="G68" s="17">
         <v>0.40500000000000003</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H68" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="17">
         <v>1.3759999999999999</v>
       </c>
-      <c r="J68" s="17">
+      <c r="K68" s="17">
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <v>68</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="17">
+      <c r="B69" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="17">
         <v>2.8610000000000002</v>
       </c>
-      <c r="D69" s="17">
+      <c r="E69" s="17">
         <v>0.85399999999999998</v>
       </c>
-      <c r="E69" s="17">
+      <c r="F69" s="17">
         <v>59.976999999999997</v>
       </c>
-      <c r="F69" s="17">
+      <c r="G69" s="17">
         <v>26.373000000000001</v>
       </c>
-      <c r="G69" s="17">
+      <c r="H69" s="17">
         <v>1.726</v>
       </c>
-      <c r="H69" s="17">
+      <c r="I69" s="17">
         <v>29.056999999999999</v>
       </c>
-      <c r="I69" s="17">
+      <c r="J69" s="17">
         <v>2.7759999999999998</v>
       </c>
-      <c r="J69" s="17">
+      <c r="K69" s="17">
         <v>6.38</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>69</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="17">
+      <c r="B70" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="17">
         <v>22.393000000000001</v>
       </c>
-      <c r="E70" s="17">
+      <c r="F70" s="17">
         <v>8.8109999999999999</v>
       </c>
-      <c r="F70" s="17">
+      <c r="G70" s="17">
         <v>6.3179999999999996</v>
       </c>
-      <c r="G70" s="17">
+      <c r="H70" s="17">
         <v>0.46</v>
       </c>
-      <c r="H70" s="17">
+      <c r="I70" s="17">
         <v>3.17</v>
       </c>
-      <c r="I70" s="17">
+      <c r="J70" s="17">
         <v>1.2</v>
       </c>
-      <c r="J70" s="17">
+      <c r="K70" s="17">
         <v>2.1739999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <v>70</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="17">
+      <c r="B71" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="17">
         <v>32.466000000000001</v>
       </c>
-      <c r="E71" s="17">
+      <c r="F71" s="17">
         <v>4.0140000000000002</v>
       </c>
-      <c r="F71" s="17">
+      <c r="G71" s="17">
         <v>5.5060000000000002</v>
       </c>
-      <c r="G71" s="17">
+      <c r="H71" s="17">
         <v>0.35</v>
       </c>
-      <c r="H71" s="17">
+      <c r="I71" s="17">
         <v>0.8</v>
       </c>
-      <c r="I71" s="17">
+      <c r="J71" s="17">
         <v>1.1319999999999999</v>
       </c>
-      <c r="J71" s="17">
+      <c r="K71" s="17">
         <v>2.5369999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <v>71</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="17">
+      <c r="B72" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="17">
         <v>18.811</v>
       </c>
-      <c r="E72" s="17">
+      <c r="F72" s="17">
         <v>2.5470000000000002</v>
       </c>
-      <c r="F72" s="17">
+      <c r="G72" s="17">
         <v>2.681</v>
       </c>
-      <c r="G72" s="17">
+      <c r="H72" s="17">
         <v>0.109</v>
       </c>
-      <c r="H72" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I72" s="17">
+      <c r="I72" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="17">
         <v>0.87</v>
       </c>
-      <c r="J72" s="17">
+      <c r="K72" s="17">
         <v>1.9490000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <v>72</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="17">
+      <c r="B73" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="17">
         <v>40.426000000000002</v>
       </c>
-      <c r="E73" s="17">
+      <c r="F73" s="17">
         <v>3.09</v>
       </c>
-      <c r="F73" s="17">
+      <c r="G73" s="17">
         <v>4.1520000000000001</v>
       </c>
-      <c r="G73" s="17">
+      <c r="H73" s="17">
         <v>0.191</v>
       </c>
-      <c r="H73" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="17">
+      <c r="I73" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17">
         <v>1.409</v>
       </c>
-      <c r="J73" s="17">
+      <c r="K73" s="17">
         <v>3.3090000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="17">
+      <c r="B74" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="17">
         <v>26.51</v>
       </c>
-      <c r="E74" s="17">
+      <c r="F74" s="17">
         <v>1.502</v>
       </c>
-      <c r="F74" s="17">
+      <c r="G74" s="17">
         <v>1.5129999999999999</v>
       </c>
-      <c r="G74" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H74" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" s="17">
         <v>0.876</v>
       </c>
-      <c r="J74" s="17">
+      <c r="K74" s="17">
         <v>1.74</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <v>74</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="17">
+      <c r="B75" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="17">
         <v>29.1</v>
       </c>
-      <c r="E75" s="17">
+      <c r="F75" s="17">
         <v>1.5149999999999999</v>
       </c>
-      <c r="F75" s="17">
+      <c r="G75" s="17">
         <v>1.3979999999999999</v>
       </c>
-      <c r="G75" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H75" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="17">
         <v>0.97199999999999998</v>
       </c>
-      <c r="J75" s="17">
+      <c r="K75" s="17">
         <v>1.8320000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="15">
-        <v>75</v>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B76" s="15"/>
-      <c r="C76" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="C76" s="15"/>
       <c r="D76" s="17" t="s">
         <v>0</v>
       </c>
@@ -2876,651 +3441,753 @@
       <c r="H76" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="17">
         <v>0.30399999999999999</v>
       </c>
-      <c r="J76" s="17">
+      <c r="K76" s="17">
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <v>76</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="17">
+      <c r="B77" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="17">
         <v>2.222</v>
       </c>
-      <c r="D77" s="17">
+      <c r="E77" s="17">
         <v>0.88100000000000001</v>
       </c>
-      <c r="E77" s="17">
+      <c r="F77" s="17">
         <v>85.885999999999996</v>
       </c>
-      <c r="F77" s="17">
+      <c r="G77" s="17">
         <v>21.956</v>
       </c>
-      <c r="G77" s="17">
+      <c r="H77" s="17">
         <v>1.2050000000000001</v>
       </c>
-      <c r="H77" s="17">
+      <c r="I77" s="17">
         <v>30.207999999999998</v>
       </c>
-      <c r="I77" s="17">
+      <c r="J77" s="17">
         <v>7.1070000000000002</v>
       </c>
-      <c r="J77" s="17">
+      <c r="K77" s="17">
         <v>9.343</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <v>77</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="17">
+      <c r="B78" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="17">
         <v>1.083</v>
       </c>
-      <c r="E78" s="17">
+      <c r="F78" s="17">
         <v>4.1420000000000003</v>
       </c>
-      <c r="F78" s="17">
+      <c r="G78" s="17">
         <v>0.92800000000000005</v>
       </c>
-      <c r="G78" s="17">
+      <c r="H78" s="17">
         <v>0.20799999999999999</v>
       </c>
-      <c r="H78" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="17">
+      <c r="I78" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" s="17">
         <v>0.58599999999999997</v>
       </c>
-      <c r="J78" s="17">
+      <c r="K78" s="17">
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <v>78</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="17">
+      <c r="B79" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="17">
         <v>55.421999999999997</v>
       </c>
-      <c r="E79" s="17">
+      <c r="F79" s="17">
         <v>9.4090000000000007</v>
       </c>
-      <c r="F79" s="17">
+      <c r="G79" s="17">
         <v>1.9139999999999999</v>
       </c>
-      <c r="G79" s="17">
+      <c r="H79" s="17">
         <v>0.371</v>
       </c>
-      <c r="H79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I79" s="17">
+      <c r="I79" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="17">
         <v>0.67100000000000004</v>
       </c>
-      <c r="J79" s="17">
+      <c r="K79" s="17">
         <v>2.2210000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <v>79</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="17">
+      <c r="B80" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="17">
         <v>19.456</v>
       </c>
-      <c r="E80" s="17">
+      <c r="F80" s="17">
         <v>2.1619999999999999</v>
       </c>
-      <c r="F80" s="17">
+      <c r="G80" s="17">
         <v>1.4570000000000001</v>
       </c>
-      <c r="G80" s="17">
+      <c r="H80" s="17">
         <v>0.153</v>
       </c>
-      <c r="H80" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I80" s="17">
+      <c r="I80" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" s="17">
         <v>0.74099999999999999</v>
       </c>
-      <c r="J80" s="17">
+      <c r="K80" s="17">
         <v>1.9330000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <v>80</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81" s="17">
+      <c r="B81" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="17">
         <v>8.6199999999999992</v>
       </c>
-      <c r="E81" s="17">
+      <c r="F81" s="17">
         <v>1.859</v>
       </c>
-      <c r="F81" s="17">
+      <c r="G81" s="17">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G81" s="17">
+      <c r="H81" s="17">
         <v>0.106</v>
       </c>
-      <c r="H81" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" s="17">
+      <c r="I81" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="17">
         <v>0.80700000000000005</v>
       </c>
-      <c r="J81" s="17">
+      <c r="K81" s="17">
         <v>2.1259999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <v>81</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D82" s="17">
+      <c r="B82" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="17">
         <v>6.6040000000000001</v>
       </c>
-      <c r="E82" s="17">
+      <c r="F82" s="17">
         <v>1.4339999999999999</v>
       </c>
-      <c r="F82" s="17">
+      <c r="G82" s="17">
         <v>1.262</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H82" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" s="17">
         <v>1.054</v>
       </c>
-      <c r="J82" s="17">
+      <c r="K82" s="17">
         <v>2.5950000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <v>82</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="17">
+      <c r="B83" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="17">
         <v>1.7310000000000001</v>
       </c>
-      <c r="E83" s="17">
+      <c r="F83" s="17">
         <v>1.141</v>
       </c>
-      <c r="F83" s="17">
+      <c r="G83" s="17">
         <v>0.183</v>
       </c>
-      <c r="G83" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H83" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="17">
         <v>0.77200000000000002</v>
       </c>
-      <c r="J83" s="17">
+      <c r="K83" s="17">
         <v>1.893</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <v>83</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="17">
+      <c r="B84" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="17">
         <v>4.0469999999999997</v>
       </c>
-      <c r="E84" s="17">
+      <c r="F84" s="17">
         <v>1.1140000000000001</v>
       </c>
-      <c r="F84" s="17">
+      <c r="G84" s="17">
         <v>0.76800000000000002</v>
       </c>
-      <c r="G84" s="17">
+      <c r="H84" s="17">
         <v>0.111</v>
       </c>
-      <c r="H84" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I84" s="17">
+      <c r="I84" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" s="17">
         <v>1.073</v>
       </c>
-      <c r="J84" s="17">
+      <c r="K84" s="17">
         <v>1.9390000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <v>84</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D85" s="17">
+      <c r="B85" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="17">
         <v>4.2960000000000003</v>
       </c>
-      <c r="E85" s="17">
+      <c r="F85" s="17">
         <v>1.4630000000000001</v>
       </c>
-      <c r="F85" s="17">
+      <c r="G85" s="17">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G85" s="17">
+      <c r="H85" s="17">
         <v>0.123</v>
       </c>
-      <c r="H85" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I85" s="17">
+      <c r="I85" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="17">
         <v>1.0089999999999999</v>
       </c>
-      <c r="J85" s="17">
+      <c r="K85" s="17">
         <v>1.605</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <v>85</v>
       </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="17">
+      <c r="B86" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="17">
         <v>3.9089999999999998</v>
       </c>
-      <c r="E86" s="17">
+      <c r="F86" s="17">
         <v>0.69699999999999995</v>
       </c>
-      <c r="F86" s="17">
+      <c r="G86" s="17">
         <v>0.97899999999999998</v>
       </c>
-      <c r="G86" s="17">
+      <c r="H86" s="17">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="H86" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I86" s="17">
+      <c r="I86" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="17">
         <v>0.96399999999999997</v>
       </c>
-      <c r="J86" s="17">
+      <c r="K86" s="17">
         <v>1.137</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="15">
-        <v>86</v>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B87" s="15"/>
-      <c r="C87" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="C87" s="15"/>
       <c r="D87" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="17">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F87" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G87" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H87" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17">
         <v>0.3</v>
       </c>
-      <c r="J87" s="17">
+      <c r="K87" s="17">
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <v>87</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="17">
+      <c r="B88" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="17">
         <v>5.0510000000000002</v>
       </c>
-      <c r="D88" s="17">
+      <c r="E88" s="17">
         <v>1.125</v>
       </c>
-      <c r="E88" s="17">
+      <c r="F88" s="17">
         <v>50.171999999999997</v>
       </c>
-      <c r="F88" s="17">
+      <c r="G88" s="17">
         <v>17.434000000000001</v>
       </c>
-      <c r="G88" s="17">
+      <c r="H88" s="17">
         <v>0.53300000000000003</v>
       </c>
-      <c r="H88" s="17">
+      <c r="I88" s="17">
         <v>13.852</v>
       </c>
-      <c r="I88" s="17">
+      <c r="J88" s="17">
         <v>10.638999999999999</v>
       </c>
-      <c r="J88" s="17">
+      <c r="K88" s="17">
         <v>8.4290000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <v>88</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" s="17">
+      <c r="B89" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="17">
         <v>1.1240000000000001</v>
       </c>
-      <c r="E89" s="17">
+      <c r="F89" s="17">
         <v>2.0369999999999999</v>
       </c>
-      <c r="F89" s="17">
+      <c r="G89" s="17">
         <v>1.3580000000000001</v>
       </c>
-      <c r="G89" s="17">
+      <c r="H89" s="17">
         <v>0.17100000000000001</v>
       </c>
-      <c r="H89" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I89" s="17">
+      <c r="I89" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="17">
         <v>0.83799999999999997</v>
       </c>
-      <c r="J89" s="17">
+      <c r="K89" s="17">
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <v>89</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="17">
+      <c r="B90" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="17">
         <v>14.509</v>
       </c>
-      <c r="E90" s="17">
+      <c r="F90" s="17">
         <v>2.99</v>
       </c>
-      <c r="F90" s="17">
+      <c r="G90" s="17">
         <v>2.5049999999999999</v>
       </c>
-      <c r="G90" s="17">
+      <c r="H90" s="17">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H90" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I90" s="17">
+      <c r="I90" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="17">
         <v>1.101</v>
       </c>
-      <c r="J90" s="17">
+      <c r="K90" s="17">
         <v>1.454</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <v>90</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" s="17">
+      <c r="B91" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="17">
         <v>15.773999999999999</v>
       </c>
-      <c r="E91" s="17">
+      <c r="F91" s="17">
         <v>2.8690000000000002</v>
       </c>
-      <c r="F91" s="17">
+      <c r="G91" s="17">
         <v>2.694</v>
       </c>
-      <c r="G91" s="17">
+      <c r="H91" s="17">
         <v>0.32200000000000001</v>
       </c>
-      <c r="H91" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I91" s="17">
+      <c r="I91" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" s="17">
         <v>1.069</v>
       </c>
-      <c r="J91" s="17">
+      <c r="K91" s="17">
         <v>1.5640000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <v>91</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" s="17">
+      <c r="B92" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="17">
         <v>11.94</v>
       </c>
-      <c r="E92" s="17">
+      <c r="F92" s="17">
         <v>2.6080000000000001</v>
       </c>
-      <c r="F92" s="17">
+      <c r="G92" s="17">
         <v>2.105</v>
       </c>
-      <c r="G92" s="17">
+      <c r="H92" s="17">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I92" s="17">
+      <c r="I92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" s="17">
         <v>0.88100000000000001</v>
       </c>
-      <c r="J92" s="17">
+      <c r="K92" s="17">
         <v>1.387</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <v>92</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="17">
+      <c r="B93" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="17">
         <v>4.556</v>
       </c>
-      <c r="E93" s="17">
+      <c r="F93" s="17">
         <v>1.714</v>
       </c>
-      <c r="F93" s="17">
+      <c r="G93" s="17">
         <v>1.147</v>
       </c>
-      <c r="G93" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H93" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J93" s="17">
         <v>0.85399999999999998</v>
       </c>
-      <c r="J93" s="17">
+      <c r="K93" s="17">
         <v>1.597</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <v>93</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="17">
+      <c r="B94" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="17">
         <v>1.7869999999999999</v>
       </c>
-      <c r="E94" s="17">
+      <c r="F94" s="17">
         <v>1.0229999999999999</v>
       </c>
-      <c r="F94" s="17">
+      <c r="G94" s="17">
         <v>0.38800000000000001</v>
       </c>
-      <c r="G94" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H94" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J94" s="17">
         <v>0.753</v>
       </c>
-      <c r="J94" s="17">
+      <c r="K94" s="17">
         <v>1.4630000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
         <v>94</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="17">
+      <c r="B95" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="17">
         <v>0.90800000000000003</v>
       </c>
-      <c r="E95" s="17">
+      <c r="F95" s="17">
         <v>0.7</v>
       </c>
-      <c r="F95" s="17">
+      <c r="G95" s="17">
         <v>0.245</v>
       </c>
-      <c r="G95" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H95" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I95" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="17">
         <v>0.73299999999999998</v>
       </c>
-      <c r="J95" s="17">
+      <c r="K95" s="17">
         <v>1.3240000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <v>95</v>
       </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="17">
+      <c r="B96" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="17">
         <v>0.52800000000000002</v>
       </c>
-      <c r="E96" s="17">
+      <c r="F96" s="17">
         <v>0.36899999999999999</v>
       </c>
-      <c r="F96" s="17">
+      <c r="G96" s="17">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G96" s="17">
+      <c r="H96" s="17">
         <v>0.128</v>
       </c>
-      <c r="H96" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I96" s="17">
+      <c r="I96" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" s="17">
         <v>0.497</v>
       </c>
-      <c r="J96" s="17">
+      <c r="K96" s="17">
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="15">
         <v>96</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="17">
+      <c r="B97" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="17">
         <v>1.8520000000000001</v>
       </c>
-      <c r="E97" s="17">
+      <c r="F97" s="17">
         <v>0.76</v>
       </c>
-      <c r="F97" s="17">
+      <c r="G97" s="17">
         <v>1.696</v>
       </c>
-      <c r="G97" s="17">
+      <c r="H97" s="17">
         <v>0.29799999999999999</v>
       </c>
-      <c r="H97" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I97" s="17">
+      <c r="I97" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="17">
         <v>0.59599999999999997</v>
       </c>
-      <c r="J97" s="17">
+      <c r="K97" s="17">
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="15">
-        <v>97</v>
-      </c>
-      <c r="B98" s="15"/>
-      <c r="C98" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="17" t="s">
         <v>0</v>
       </c>
@@ -3536,321 +4203,372 @@
       <c r="H98" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" s="17">
         <v>0.30299999999999999</v>
       </c>
-      <c r="J98" s="17">
+      <c r="K98" s="17">
         <v>0.316</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <v>98</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="17">
+      <c r="B99" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="17">
         <v>1.2589999999999999</v>
       </c>
-      <c r="E99" s="17">
+      <c r="F99" s="17">
         <v>3.3119999999999998</v>
       </c>
-      <c r="F99" s="17">
+      <c r="G99" s="17">
         <v>8.7929999999999993</v>
       </c>
-      <c r="G99" s="17">
+      <c r="H99" s="17">
         <v>0.94499999999999995</v>
       </c>
-      <c r="H99" s="17">
+      <c r="I99" s="17">
         <v>0.64400000000000002</v>
       </c>
-      <c r="I99" s="17">
+      <c r="J99" s="17">
         <v>2.2930000000000001</v>
       </c>
-      <c r="J99" s="17">
+      <c r="K99" s="17">
         <v>2.7090000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <v>99</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="17">
+      <c r="B100" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="17">
         <v>1.7669999999999999</v>
       </c>
-      <c r="E100" s="17">
+      <c r="F100" s="17">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F100" s="17">
+      <c r="G100" s="17">
         <v>0.70199999999999996</v>
       </c>
-      <c r="G100" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H100" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I100" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="17">
         <v>0.60799999999999998</v>
       </c>
-      <c r="J100" s="17">
+      <c r="K100" s="17">
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="15">
         <v>100</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="17">
+      <c r="B101" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="17">
         <v>12.379</v>
       </c>
-      <c r="E101" s="17">
+      <c r="F101" s="17">
         <v>1.171</v>
       </c>
-      <c r="F101" s="17">
+      <c r="G101" s="17">
         <v>1.843</v>
       </c>
-      <c r="G101" s="17">
+      <c r="H101" s="17">
         <v>0.249</v>
       </c>
-      <c r="H101" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I101" s="17">
+      <c r="I101" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" s="17">
         <v>0.59</v>
       </c>
-      <c r="J101" s="17">
+      <c r="K101" s="17">
         <v>1.4139999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="15">
         <v>101</v>
       </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="17">
+      <c r="B102" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="17">
         <v>6.4660000000000002</v>
       </c>
-      <c r="E102" s="17">
+      <c r="F102" s="17">
         <v>1.177</v>
       </c>
-      <c r="F102" s="17">
+      <c r="G102" s="17">
         <v>1.2030000000000001</v>
       </c>
-      <c r="G102" s="17">
+      <c r="H102" s="17">
         <v>0.21299999999999999</v>
       </c>
-      <c r="H102" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I102" s="17">
+      <c r="I102" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" s="17">
         <v>0.435</v>
       </c>
-      <c r="J102" s="17">
+      <c r="K102" s="17">
         <v>1.373</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="15">
         <v>102</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="17">
+      <c r="B103" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="17">
         <v>1.454</v>
       </c>
-      <c r="E103" s="17">
+      <c r="F103" s="17">
         <v>1.425</v>
       </c>
-      <c r="F103" s="17">
+      <c r="G103" s="17">
         <v>0.88900000000000001</v>
       </c>
-      <c r="G103" s="17">
+      <c r="H103" s="17">
         <v>0.113</v>
       </c>
-      <c r="H103" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="17">
+      <c r="I103" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" s="17">
         <v>0.61</v>
       </c>
-      <c r="J103" s="17">
+      <c r="K103" s="17">
         <v>1.506</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="15">
         <v>103</v>
       </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D104" s="17">
+      <c r="B104" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="17">
         <v>1.006</v>
       </c>
-      <c r="E104" s="17">
+      <c r="F104" s="17">
         <v>1.038</v>
       </c>
-      <c r="F104" s="17">
+      <c r="G104" s="17">
         <v>0.41099999999999998</v>
       </c>
-      <c r="G104" s="17">
+      <c r="H104" s="17">
         <v>0.105</v>
       </c>
-      <c r="H104" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I104" s="17">
+      <c r="I104" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" s="17">
         <v>0.52900000000000003</v>
       </c>
-      <c r="J104" s="17">
+      <c r="K104" s="17">
         <v>1.5029999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="15">
         <v>104</v>
       </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" s="17">
+      <c r="B105" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="17">
         <v>0.64600000000000002</v>
       </c>
-      <c r="E105" s="17">
+      <c r="F105" s="17">
         <v>0.60899999999999999</v>
       </c>
-      <c r="F105" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G105" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I105" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J105" s="17">
         <v>0.46600000000000003</v>
       </c>
-      <c r="J105" s="17">
+      <c r="K105" s="17">
         <v>1.8260000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="15">
         <v>105</v>
       </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" s="17">
+      <c r="B106" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="17">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E106" s="17">
+      <c r="F106" s="17">
         <v>0.61199999999999999</v>
       </c>
-      <c r="F106" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G106" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" s="17">
         <v>0.50800000000000001</v>
       </c>
-      <c r="J106" s="17">
+      <c r="K106" s="17">
         <v>1.9670000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="15">
         <v>106</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="17">
+      <c r="B107" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="17">
         <v>0.64900000000000002</v>
       </c>
-      <c r="E107" s="17">
+      <c r="F107" s="17">
         <v>0.53800000000000003</v>
       </c>
-      <c r="F107" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G107" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" s="17">
         <v>0.35699999999999998</v>
       </c>
-      <c r="J107" s="17">
+      <c r="K107" s="17">
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="15">
         <v>107</v>
       </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="17">
+      <c r="B108" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="17">
         <v>7.7320000000000002</v>
       </c>
-      <c r="E108" s="17">
+      <c r="F108" s="17">
         <v>0.82499999999999996</v>
       </c>
-      <c r="F108" s="17">
+      <c r="G108" s="17">
         <v>0.80300000000000005</v>
       </c>
-      <c r="G108" s="17">
+      <c r="H108" s="17">
         <v>0.36899999999999999</v>
       </c>
-      <c r="H108" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I108" s="17">
+      <c r="I108" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J108" s="17">
         <v>0.61299999999999999</v>
       </c>
-      <c r="J108" s="17">
+      <c r="K108" s="17">
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="15">
-        <v>108</v>
-      </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="31"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="17" t="s">
         <v>0</v>
       </c>
@@ -3866,261 +4584,302 @@
       <c r="H109" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I109" s="17">
+      <c r="I109" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="17">
         <v>0.29499999999999998</v>
       </c>
-      <c r="J109" s="17">
+      <c r="K109" s="17">
         <v>0.309</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="15">
         <v>109</v>
       </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="17">
+      <c r="B110" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="17">
         <v>0.65200000000000002</v>
       </c>
-      <c r="E110" s="17">
+      <c r="F110" s="17">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F110" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G110" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I110" s="17">
+      <c r="I110" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" s="17">
         <v>0.38500000000000001</v>
       </c>
-      <c r="J110" s="17">
+      <c r="K110" s="17">
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="15">
         <v>110</v>
       </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="17">
+      <c r="B111" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="17">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E111" s="17">
+      <c r="F111" s="17">
         <v>0.54800000000000004</v>
       </c>
-      <c r="F111" s="17">
+      <c r="G111" s="17">
         <v>0.182</v>
       </c>
-      <c r="G111" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H111" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I111" s="17">
+      <c r="I111" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="17">
         <v>0.40799999999999997</v>
       </c>
-      <c r="J111" s="17">
+      <c r="K111" s="17">
         <v>0.58899999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="15">
         <v>111</v>
       </c>
-      <c r="B112" s="15"/>
-      <c r="C112" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="17">
+      <c r="B112" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="17">
         <v>0.47499999999999998</v>
       </c>
-      <c r="E112" s="17">
+      <c r="F112" s="17">
         <v>17.827000000000002</v>
       </c>
-      <c r="F112" s="17">
+      <c r="G112" s="17">
         <v>1.651</v>
       </c>
-      <c r="G112" s="17">
+      <c r="H112" s="17">
         <v>0.80800000000000005</v>
       </c>
-      <c r="H112" s="17">
+      <c r="I112" s="17">
         <v>2.5430000000000001</v>
       </c>
-      <c r="I112" s="17">
+      <c r="J112" s="17">
         <v>0.44900000000000001</v>
       </c>
-      <c r="J112" s="17">
+      <c r="K112" s="17">
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="15">
         <v>112</v>
       </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="17">
+      <c r="B113" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="17">
         <v>2.452</v>
       </c>
-      <c r="E113" s="17">
+      <c r="F113" s="17">
         <v>2.4750000000000001</v>
       </c>
-      <c r="F113" s="17">
+      <c r="G113" s="17">
         <v>2.056</v>
       </c>
-      <c r="G113" s="17">
+      <c r="H113" s="17">
         <v>4.07</v>
       </c>
-      <c r="H113" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I113" s="17">
+      <c r="I113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J113" s="17">
         <v>0.75800000000000001</v>
       </c>
-      <c r="J113" s="17">
+      <c r="K113" s="17">
         <v>0.79300000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="15">
         <v>113</v>
       </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="17">
+      <c r="B114" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="17">
         <v>2.65</v>
       </c>
-      <c r="E114" s="17">
+      <c r="F114" s="17">
         <v>4.0090000000000003</v>
       </c>
-      <c r="F114" s="17">
+      <c r="G114" s="17">
         <v>6.9429999999999996</v>
       </c>
-      <c r="G114" s="17">
+      <c r="H114" s="17">
         <v>6.3650000000000002</v>
       </c>
-      <c r="H114" s="17">
+      <c r="I114" s="17">
         <v>2.2080000000000002</v>
       </c>
-      <c r="I114" s="17">
+      <c r="J114" s="17">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J114" s="17">
+      <c r="K114" s="17">
         <v>0.95</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="15">
         <v>114</v>
       </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="17">
+      <c r="B115" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="17">
         <v>2.089</v>
       </c>
-      <c r="E115" s="17">
+      <c r="F115" s="17">
         <v>0.63200000000000001</v>
       </c>
-      <c r="F115" s="17">
+      <c r="G115" s="17">
         <v>2.0859999999999999</v>
       </c>
-      <c r="G115" s="17">
+      <c r="H115" s="17">
         <v>0.35299999999999998</v>
       </c>
-      <c r="H115" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I115" s="17">
+      <c r="I115" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J115" s="17">
         <v>0.54700000000000004</v>
       </c>
-      <c r="J115" s="17">
+      <c r="K115" s="17">
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="15">
         <v>115</v>
       </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="17">
+      <c r="B116" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="17">
         <v>2.0459999999999998</v>
       </c>
-      <c r="D116" s="17">
+      <c r="E116" s="17">
         <v>2.7</v>
       </c>
-      <c r="E116" s="17">
+      <c r="F116" s="17">
         <v>0.86799999999999999</v>
       </c>
-      <c r="F116" s="17">
+      <c r="G116" s="17">
         <v>2.0939999999999999</v>
       </c>
-      <c r="G116" s="17">
+      <c r="H116" s="17">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H116" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I116" s="17">
+      <c r="I116" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J116" s="17">
         <v>2.536</v>
       </c>
-      <c r="J116" s="17">
+      <c r="K116" s="17">
         <v>3.0409999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="15">
         <v>116</v>
       </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="17">
+      <c r="B117" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="17">
         <v>1.845</v>
       </c>
-      <c r="D117" s="17">
+      <c r="E117" s="17">
         <v>1.9670000000000001</v>
       </c>
-      <c r="E117" s="17">
+      <c r="F117" s="17">
         <v>1.0609999999999999</v>
       </c>
-      <c r="F117" s="17">
+      <c r="G117" s="17">
         <v>1.55</v>
       </c>
-      <c r="G117" s="17">
+      <c r="H117" s="17">
         <v>0.191</v>
       </c>
-      <c r="H117" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I117" s="17">
+      <c r="I117" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" s="17">
         <v>2.6560000000000001</v>
       </c>
-      <c r="J117" s="17">
+      <c r="K117" s="17">
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="15">
-        <v>117</v>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B118" s="15"/>
-      <c r="C118" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="C118" s="15"/>
       <c r="D118" s="17" t="s">
         <v>0</v>
       </c>
@@ -4136,321 +4895,372 @@
       <c r="H118" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I118" s="17">
+      <c r="I118" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="17">
         <v>0.315</v>
       </c>
-      <c r="J118" s="17">
+      <c r="K118" s="17">
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="15">
         <v>118</v>
       </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="17">
+      <c r="B119" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D119" s="17">
         <v>0.90300000000000002</v>
       </c>
-      <c r="D119" s="17">
+      <c r="E119" s="17">
         <v>2.1429999999999998</v>
       </c>
-      <c r="E119" s="17">
+      <c r="F119" s="17">
         <v>0.89800000000000002</v>
       </c>
-      <c r="F119" s="17">
+      <c r="G119" s="17">
         <v>0.93899999999999995</v>
       </c>
-      <c r="G119" s="17">
+      <c r="H119" s="17">
         <v>0.16</v>
       </c>
-      <c r="H119" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I119" s="17">
+      <c r="I119" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" s="17">
         <v>2.4369999999999998</v>
       </c>
-      <c r="J119" s="17">
+      <c r="K119" s="17">
         <v>3.548</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="15">
         <v>119</v>
       </c>
-      <c r="B120" s="15"/>
-      <c r="C120" s="17">
+      <c r="B120" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="17">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D120" s="17">
+      <c r="E120" s="17">
         <v>1.5229999999999999</v>
       </c>
-      <c r="E120" s="17">
+      <c r="F120" s="17">
         <v>0.78400000000000003</v>
       </c>
-      <c r="F120" s="17">
+      <c r="G120" s="17">
         <v>0.51500000000000001</v>
       </c>
-      <c r="G120" s="17">
+      <c r="H120" s="17">
         <v>0.182</v>
       </c>
-      <c r="H120" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I120" s="17">
+      <c r="I120" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" s="17">
         <v>1.9870000000000001</v>
       </c>
-      <c r="J120" s="17">
+      <c r="K120" s="17">
         <v>2.5289999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="15">
         <v>120</v>
       </c>
-      <c r="B121" s="15"/>
-      <c r="C121" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="17">
+      <c r="B121" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="17">
         <v>1.62</v>
       </c>
-      <c r="E121" s="17">
+      <c r="F121" s="17">
         <v>0.65700000000000003</v>
       </c>
-      <c r="F121" s="17">
+      <c r="G121" s="17">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G121" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H121" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I121" s="17">
+      <c r="I121" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" s="17">
         <v>2.06</v>
       </c>
-      <c r="J121" s="17">
+      <c r="K121" s="17">
         <v>1.8029999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="15">
         <v>121</v>
       </c>
-      <c r="B122" s="15"/>
-      <c r="C122" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="17">
+      <c r="B122" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="17">
         <v>1.351</v>
       </c>
-      <c r="E122" s="17">
+      <c r="F122" s="17">
         <v>0.59799999999999998</v>
       </c>
-      <c r="F122" s="17">
+      <c r="G122" s="17">
         <v>0.13300000000000001</v>
       </c>
-      <c r="G122" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H122" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I122" s="17">
+      <c r="I122" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" s="17">
         <v>1.7889999999999999</v>
       </c>
-      <c r="J122" s="17">
+      <c r="K122" s="17">
         <v>1.431</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="15">
         <v>122</v>
       </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" s="17">
+      <c r="B123" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="17">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E123" s="17">
+      <c r="F123" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F123" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G123" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H123" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I123" s="17">
+      <c r="I123" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J123" s="17">
         <v>1.4710000000000001</v>
       </c>
-      <c r="J123" s="17">
+      <c r="K123" s="17">
         <v>1.3380000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="15">
         <v>123</v>
       </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D124" s="17">
+      <c r="B124" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="17">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E124" s="17">
+      <c r="F124" s="17">
         <v>0.41099999999999998</v>
       </c>
-      <c r="F124" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G124" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H124" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I124" s="17">
+      <c r="I124" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J124" s="17">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J124" s="17">
+      <c r="K124" s="17">
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="15">
         <v>124</v>
       </c>
-      <c r="B125" s="15"/>
-      <c r="C125" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" s="17">
+      <c r="B125" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="17">
         <v>0.79600000000000004</v>
       </c>
-      <c r="E125" s="17">
+      <c r="F125" s="17">
         <v>0.40500000000000003</v>
       </c>
-      <c r="F125" s="17">
+      <c r="G125" s="17">
         <v>0.89100000000000001</v>
       </c>
-      <c r="G125" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="H125" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I125" s="17">
+      <c r="I125" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J125" s="17">
         <v>0.437</v>
       </c>
-      <c r="J125" s="17">
+      <c r="K125" s="17">
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="15">
         <v>125</v>
       </c>
-      <c r="B126" s="15"/>
-      <c r="C126" s="17">
+      <c r="B126" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126" s="17">
         <v>0.23799999999999999</v>
       </c>
-      <c r="D126" s="17">
+      <c r="E126" s="17">
         <v>1.873</v>
       </c>
-      <c r="E126" s="17">
+      <c r="F126" s="17">
         <v>1.018</v>
       </c>
-      <c r="F126" s="17">
+      <c r="G126" s="17">
         <v>5.1479999999999997</v>
       </c>
-      <c r="G126" s="17">
+      <c r="H126" s="17">
         <v>0.71099999999999997</v>
       </c>
-      <c r="H126" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I126" s="17">
+      <c r="I126" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J126" s="17">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J126" s="17">
+      <c r="K126" s="17">
         <v>1.113</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="15">
         <v>126</v>
       </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="17">
+      <c r="B127" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="17">
         <v>1.117</v>
       </c>
-      <c r="D127" s="17">
+      <c r="E127" s="17">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E127" s="17">
+      <c r="F127" s="17">
         <v>54.841999999999999</v>
       </c>
-      <c r="F127" s="17">
+      <c r="G127" s="17">
         <v>29.765000000000001</v>
       </c>
-      <c r="G127" s="17">
+      <c r="H127" s="17">
         <v>1.946</v>
       </c>
-      <c r="H127" s="17">
+      <c r="I127" s="17">
         <v>31.617999999999999</v>
       </c>
-      <c r="I127" s="17">
+      <c r="J127" s="17">
         <v>3.169</v>
       </c>
-      <c r="J127" s="17">
+      <c r="K127" s="17">
         <v>6.3769999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="15">
         <v>127</v>
       </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" s="17">
+      <c r="B128" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="17">
         <v>0.245</v>
       </c>
-      <c r="E128" s="17">
+      <c r="F128" s="17">
         <v>0.59099999999999997</v>
       </c>
-      <c r="F128" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G128" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H128" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I128" s="17">
+      <c r="I128" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J128" s="17">
         <v>0.81899999999999995</v>
       </c>
-      <c r="J128" s="17">
+      <c r="K128" s="17">
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="15">
-        <v>128</v>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B129" s="15"/>
-      <c r="C129" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="C129" s="15"/>
       <c r="D129" s="17" t="s">
         <v>0</v>
       </c>
@@ -4466,130 +5276,151 @@
       <c r="H129" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I129" s="17">
+      <c r="I129" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J129" s="17">
         <v>0.29499999999999998</v>
       </c>
-      <c r="J129" s="17">
+      <c r="K129" s="17">
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="15">
         <v>129</v>
       </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D130" s="17">
+      <c r="B130" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E130" s="17">
+      <c r="F130" s="17">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F130" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="G130" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H130" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I130" s="17">
+      <c r="I130" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J130" s="17">
         <v>0.77200000000000002</v>
       </c>
-      <c r="J130" s="17">
+      <c r="K130" s="17">
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="15">
         <v>130</v>
       </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="17">
+      <c r="B131" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="17">
         <v>1.4330000000000001</v>
       </c>
-      <c r="E131" s="17">
+      <c r="F131" s="17">
         <v>1.712</v>
       </c>
-      <c r="F131" s="17">
+      <c r="G131" s="17">
         <v>1.667</v>
       </c>
-      <c r="G131" s="17">
+      <c r="H131" s="17">
         <v>0.311</v>
       </c>
-      <c r="H131" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I131" s="17">
+      <c r="I131" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" s="17">
         <v>0.54600000000000004</v>
       </c>
-      <c r="J131" s="17">
+      <c r="K131" s="17">
         <v>1.754</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="15">
         <v>131</v>
       </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="17">
+      <c r="B132" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="17">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D132" s="17">
+      <c r="E132" s="17">
         <v>5.27</v>
       </c>
-      <c r="E132" s="17">
+      <c r="F132" s="17">
         <v>4.944</v>
       </c>
-      <c r="F132" s="17">
+      <c r="G132" s="17">
         <v>22.893000000000001</v>
       </c>
-      <c r="G132" s="17">
+      <c r="H132" s="17">
         <v>3.2839999999999998</v>
       </c>
-      <c r="H132" s="17">
+      <c r="I132" s="17">
         <v>7.4960000000000004</v>
       </c>
-      <c r="I132" s="17">
+      <c r="J132" s="17">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J132" s="17">
+      <c r="K132" s="17">
         <v>8.1519999999999992</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="15">
         <v>132</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="17">
+      <c r="B133" s="15">
+        <v>99</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="17">
         <v>5.335</v>
       </c>
-      <c r="D133" s="17">
+      <c r="E133" s="17">
         <v>6.2480000000000002</v>
       </c>
-      <c r="E133" s="17">
+      <c r="F133" s="17">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F133" s="17">
+      <c r="G133" s="17">
         <v>4.7670000000000003</v>
       </c>
-      <c r="G133" s="17">
+      <c r="H133" s="17">
         <v>0.24399999999999999</v>
       </c>
-      <c r="H133" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I133" s="17">
+      <c r="I133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="17">
         <v>2.992</v>
       </c>
-      <c r="J133" s="17">
+      <c r="K133" s="17">
         <v>2.7810000000000001</v>
       </c>
     </row>
@@ -4609,40 +5440,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -4658,11 +5489,11 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -4672,11 +5503,11 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4686,11 +5517,11 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="19">
         <v>5593</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -4700,11 +5531,11 @@
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="23">
         <v>44301</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -4714,11 +5545,11 @@
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="23">
         <v>44306</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -4728,11 +5559,11 @@
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -4742,11 +5573,11 @@
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="26">
         <v>1457.28</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -4763,30 +5594,30 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{A9470342-9082-6945-8C44-D1267B4B0C49}"/>

--- a/data/raw/CationExtractions_raw.xlsx
+++ b/data/raw/CationExtractions_raw.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95749FB9-696C-FC48-BD90-7AD1A6E2A1E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510874A5-AA67-CB40-AF9C-6E409E1B8AFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16500" activeTab="1" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
+    <workbookView xWindow="2000" yWindow="740" windowWidth="27640" windowHeight="16500" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="89">
   <si>
     <t>Virginia Tech Soil Testing Laboratory</t>
   </si>
@@ -199,9 +199,6 @@
     <t>BC2</t>
   </si>
   <si>
-    <t>D1-2</t>
-  </si>
-  <si>
     <t>E3</t>
   </si>
   <si>
@@ -283,13 +280,19 @@
     <t>Bhs3.3</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
     <t>Bs3</t>
   </si>
   <si>
     <t>Data reported as mg/L in solution. The "-99.99" indicates concentrations less than the instrument detection limit.</t>
+  </si>
+  <si>
+    <t>Oa1</t>
+  </si>
+  <si>
+    <t>Bhs2.3</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,6 +468,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -480,17 +495,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,14 +821,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB117DD-7230-9241-B114-EEEE02930CE9}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="14"/>
-    <col min="4" max="11" width="10.83203125" style="21"/>
+    <col min="4" max="5" width="10.83203125" style="21"/>
+    <col min="6" max="6" width="10.83203125" style="33"/>
+    <col min="7" max="11" width="10.83203125" style="21"/>
     <col min="12" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
@@ -836,7 +850,7 @@
       <c r="E1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="31" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="19" t="s">
@@ -866,7 +880,7 @@
       <c r="E2" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="32">
         <v>9.4E-2</v>
       </c>
       <c r="G2" s="20">
@@ -901,7 +915,7 @@
       <c r="E3" s="20">
         <v>6.8680000000000003</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="32">
         <v>0.86</v>
       </c>
       <c r="G3" s="20">
@@ -936,7 +950,7 @@
       <c r="E4" s="20">
         <v>4.2569999999999997</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="32">
         <v>0.48099999999999998</v>
       </c>
       <c r="G4" s="20">
@@ -971,7 +985,7 @@
       <c r="E5" s="20">
         <v>4.3460000000000001</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="32">
         <v>8.3089999999999993</v>
       </c>
       <c r="G5" s="20">
@@ -1006,7 +1020,7 @@
       <c r="E6" s="20">
         <v>10.504</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="32">
         <v>1.046</v>
       </c>
       <c r="G6" s="20">
@@ -1041,7 +1055,7 @@
       <c r="E7" s="20">
         <v>2.6720000000000002</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="32">
         <v>0.93</v>
       </c>
       <c r="G7" s="20">
@@ -1076,7 +1090,7 @@
       <c r="E8" s="20">
         <v>3.073</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="32">
         <v>1.016</v>
       </c>
       <c r="G8" s="20">
@@ -1111,7 +1125,7 @@
       <c r="E9" s="20">
         <v>4.6689999999999996</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="32">
         <v>1.198</v>
       </c>
       <c r="G9" s="20">
@@ -1146,7 +1160,7 @@
       <c r="E10" s="20">
         <v>2.226</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="32">
         <v>52.545999999999999</v>
       </c>
       <c r="G10" s="20">
@@ -1181,7 +1195,7 @@
       <c r="E11" s="20">
         <v>2.5640000000000001</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="32">
         <v>3.0680000000000001</v>
       </c>
       <c r="G11" s="20">
@@ -1216,7 +1230,7 @@
       <c r="E12" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="32">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G12" s="20">
@@ -1247,7 +1261,7 @@
       <c r="E13" s="20">
         <v>59.514000000000003</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="32">
         <v>2.4420000000000002</v>
       </c>
       <c r="G13" s="20">
@@ -1282,7 +1296,7 @@
       <c r="E14" s="20">
         <v>15.175000000000001</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="32">
         <v>1.581</v>
       </c>
       <c r="G14" s="20">
@@ -1317,7 +1331,7 @@
       <c r="E15" s="20">
         <v>1.367</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="32">
         <v>0.84099999999999997</v>
       </c>
       <c r="G15" s="20">
@@ -1352,7 +1366,7 @@
       <c r="E16" s="20">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="32">
         <v>0.59799999999999998</v>
       </c>
       <c r="G16" s="20">
@@ -1387,7 +1401,7 @@
       <c r="E17" s="20">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="32">
         <v>2.6890000000000001</v>
       </c>
       <c r="G17" s="20">
@@ -1422,7 +1436,7 @@
       <c r="E18" s="20">
         <v>0.879</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="32">
         <v>1.9470000000000001</v>
       </c>
       <c r="G18" s="20">
@@ -1457,7 +1471,7 @@
       <c r="E19" s="20">
         <v>1.1160000000000001</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="32">
         <v>1.48</v>
       </c>
       <c r="G19" s="20">
@@ -1492,7 +1506,7 @@
       <c r="E20" s="20">
         <v>8.0250000000000004</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="32">
         <v>2.3260000000000001</v>
       </c>
       <c r="G20" s="20">
@@ -1527,7 +1541,7 @@
       <c r="E21" s="20">
         <v>5.4459999999999997</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="32">
         <v>4.968</v>
       </c>
       <c r="G21" s="20">
@@ -1558,7 +1572,7 @@
       <c r="E22" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="32">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G22" s="20">
@@ -1593,7 +1607,7 @@
       <c r="E23" s="20">
         <v>6.9509999999999996</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="32">
         <v>2.339</v>
       </c>
       <c r="G23" s="20">
@@ -1628,7 +1642,7 @@
       <c r="E24" s="20">
         <v>4.21</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="32">
         <v>1.0169999999999999</v>
       </c>
       <c r="G24" s="20">
@@ -1663,7 +1677,7 @@
       <c r="E25" s="20">
         <v>3.5219999999999998</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="32">
         <v>2.2839999999999998</v>
       </c>
       <c r="G25" s="20">
@@ -1698,7 +1712,7 @@
       <c r="E26" s="20">
         <v>1.9430000000000001</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="32">
         <v>1.5940000000000001</v>
       </c>
       <c r="G26" s="20">
@@ -1733,7 +1747,7 @@
       <c r="E27" s="20">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="32">
         <v>11.458</v>
       </c>
       <c r="G27" s="20">
@@ -1768,7 +1782,7 @@
       <c r="E28" s="20">
         <v>0.112</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="32">
         <v>0.41</v>
       </c>
       <c r="G28" s="20">
@@ -1803,7 +1817,7 @@
       <c r="E29" s="20">
         <v>16.87</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="32">
         <v>0.94899999999999995</v>
       </c>
       <c r="G29" s="20">
@@ -1838,7 +1852,7 @@
       <c r="E30" s="20">
         <v>0.48</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="32">
         <v>0.628</v>
       </c>
       <c r="G30" s="20">
@@ -1873,7 +1887,7 @@
       <c r="E31" s="20">
         <v>0.42099999999999999</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="32">
         <v>0.32200000000000001</v>
       </c>
       <c r="G31" s="20">
@@ -1908,7 +1922,7 @@
       <c r="E32" s="20">
         <v>5.0789999999999997</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="32">
         <v>33.689</v>
       </c>
       <c r="G32" s="20">
@@ -1939,7 +1953,7 @@
       <c r="E33" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="32">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="G33" s="20">
@@ -1974,7 +1988,7 @@
       <c r="E34" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="32">
         <v>0.77400000000000002</v>
       </c>
       <c r="G34" s="20">
@@ -2009,7 +2023,7 @@
       <c r="E35" s="20">
         <v>1.07</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="32">
         <v>6.63</v>
       </c>
       <c r="G35" s="20">
@@ -2044,7 +2058,7 @@
       <c r="E36" s="20">
         <v>1.9430000000000001</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="32">
         <v>5.218</v>
       </c>
       <c r="G36" s="20">
@@ -2079,7 +2093,7 @@
       <c r="E37" s="20">
         <v>2.3319999999999999</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="32">
         <v>2.4980000000000002</v>
       </c>
       <c r="G37" s="20">
@@ -2114,7 +2128,7 @@
       <c r="E38" s="20">
         <v>3.5289999999999999</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="32">
         <v>0.85099999999999998</v>
       </c>
       <c r="G38" s="20">
@@ -2149,7 +2163,7 @@
       <c r="E39" s="20">
         <v>0.56899999999999995</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="32">
         <v>26.905000000000001</v>
       </c>
       <c r="G39" s="20">
@@ -2184,7 +2198,7 @@
       <c r="E40" s="20">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="32">
         <v>4.3890000000000002</v>
       </c>
       <c r="G40" s="20">
@@ -2219,7 +2233,7 @@
       <c r="E41" s="20">
         <v>39.302</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="32">
         <v>8.2360000000000007</v>
       </c>
       <c r="G41" s="20">
@@ -2254,7 +2268,7 @@
       <c r="E42" s="20">
         <v>3.141</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="32">
         <v>2.4710000000000001</v>
       </c>
       <c r="G42" s="20">
@@ -2289,7 +2303,7 @@
       <c r="E43" s="20">
         <v>1.72</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="32">
         <v>2.7389999999999999</v>
       </c>
       <c r="G43" s="20">
@@ -2320,7 +2334,7 @@
       <c r="E44" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="32">
         <v>0.104</v>
       </c>
       <c r="G44" s="20">
@@ -2347,7 +2361,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D45" s="20">
         <v>4.0860000000000003</v>
@@ -2355,7 +2369,7 @@
       <c r="E45" s="20">
         <v>0.88300000000000001</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="32">
         <v>24.902999999999999</v>
       </c>
       <c r="G45" s="20">
@@ -2390,7 +2404,7 @@
       <c r="E46" s="20">
         <v>1.5680000000000001</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="32">
         <v>6.2610000000000001</v>
       </c>
       <c r="G46" s="20">
@@ -2425,7 +2439,7 @@
       <c r="E47" s="20">
         <v>1.9690000000000001</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="32">
         <v>5.7919999999999998</v>
       </c>
       <c r="G47" s="20">
@@ -2460,7 +2474,7 @@
       <c r="E48" s="20">
         <v>1.1759999999999999</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="32">
         <v>3.0339999999999998</v>
       </c>
       <c r="G48" s="20">
@@ -2495,7 +2509,7 @@
       <c r="E49" s="20">
         <v>1.92</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="32">
         <v>7.53</v>
       </c>
       <c r="G49" s="20">
@@ -2530,7 +2544,7 @@
       <c r="E50" s="20">
         <v>2.1789999999999998</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="32">
         <v>0.84799999999999998</v>
       </c>
       <c r="G50" s="20">
@@ -2565,7 +2579,7 @@
       <c r="E51" s="20">
         <v>25.356999999999999</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="32">
         <v>1.8680000000000001</v>
       </c>
       <c r="G51" s="20">
@@ -2592,7 +2606,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D52" s="20">
         <v>-99.99</v>
@@ -2600,7 +2614,7 @@
       <c r="E52" s="20">
         <v>13.01</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="32">
         <v>1.6850000000000001</v>
       </c>
       <c r="G52" s="20">
@@ -2627,7 +2641,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D53" s="20">
         <v>-99.99</v>
@@ -2635,7 +2649,7 @@
       <c r="E53" s="20">
         <v>4.7290000000000001</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="32">
         <v>1.034</v>
       </c>
       <c r="G53" s="20">
@@ -2662,7 +2676,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D54" s="20">
         <v>-99.99</v>
@@ -2670,7 +2684,7 @@
       <c r="E54" s="20">
         <v>2.7530000000000001</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="32">
         <v>1.2310000000000001</v>
       </c>
       <c r="G54" s="20">
@@ -2701,7 +2715,7 @@
       <c r="E55" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="32">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G55" s="20">
@@ -2736,7 +2750,7 @@
       <c r="E56" s="20">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="32">
         <v>0.77900000000000003</v>
       </c>
       <c r="G56" s="20">
@@ -2771,7 +2785,7 @@
       <c r="E57" s="20">
         <v>0.68400000000000005</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="32">
         <v>0.49099999999999999</v>
       </c>
       <c r="G57" s="20">
@@ -2798,7 +2812,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D58" s="20">
         <v>0.88900000000000001</v>
@@ -2806,7 +2820,7 @@
       <c r="E58" s="20">
         <v>3.427</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="32">
         <v>8.0649999999999995</v>
       </c>
       <c r="G58" s="20">
@@ -2833,7 +2847,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="20">
         <v>-99.99</v>
@@ -2841,7 +2855,7 @@
       <c r="E59" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="32">
         <v>4.6719999999999997</v>
       </c>
       <c r="G59" s="20">
@@ -2865,10 +2879,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="D60" s="20">
         <v>-99.99</v>
@@ -2876,7 +2890,7 @@
       <c r="E60" s="20">
         <v>3.7450000000000001</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="32">
         <v>0.80800000000000005</v>
       </c>
       <c r="G60" s="20">
@@ -2900,10 +2914,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="20">
         <v>-99.99</v>
@@ -2911,7 +2925,7 @@
       <c r="E61" s="20">
         <v>3.1440000000000001</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="32">
         <v>0.68300000000000005</v>
       </c>
       <c r="G61" s="20">
@@ -2935,7 +2949,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>27</v>
@@ -2946,7 +2960,7 @@
       <c r="E62" s="20">
         <v>2.1539999999999999</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="32">
         <v>0.49199999999999999</v>
       </c>
       <c r="G62" s="20">
@@ -2970,7 +2984,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>29</v>
@@ -2981,7 +2995,7 @@
       <c r="E63" s="20">
         <v>7.7380000000000004</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="32">
         <v>8.0640000000000001</v>
       </c>
       <c r="G63" s="20">
@@ -3005,7 +3019,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>26</v>
@@ -3016,7 +3030,7 @@
       <c r="E64" s="20">
         <v>2.6219999999999999</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="32">
         <v>0.99</v>
       </c>
       <c r="G64" s="20">
@@ -3047,7 +3061,7 @@
       <c r="E65" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="32">
         <v>-99.99</v>
       </c>
       <c r="G65" s="20">
@@ -3071,7 +3085,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>27</v>
@@ -3082,7 +3096,7 @@
       <c r="E66" s="20">
         <v>2.702</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="32">
         <v>0.436</v>
       </c>
       <c r="G66" s="20">
@@ -3106,10 +3120,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D67" s="20">
         <v>0.13100000000000001</v>
@@ -3117,7 +3131,7 @@
       <c r="E67" s="20">
         <v>5.32</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="32">
         <v>0.39400000000000002</v>
       </c>
       <c r="G67" s="20">
@@ -3141,10 +3155,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="D68" s="20">
         <v>-99.99</v>
@@ -3152,7 +3166,7 @@
       <c r="E68" s="20">
         <v>4.3570000000000002</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="32">
         <v>0.39600000000000002</v>
       </c>
       <c r="G68" s="20">
@@ -3176,7 +3190,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>29</v>
@@ -3187,7 +3201,7 @@
       <c r="E69" s="20">
         <v>0.85399999999999998</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="32">
         <v>59.976999999999997</v>
       </c>
       <c r="G69" s="20">
@@ -3211,10 +3225,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="D70" s="20">
         <v>-99.99</v>
@@ -3222,7 +3236,7 @@
       <c r="E70" s="20">
         <v>22.393000000000001</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="32">
         <v>8.8109999999999999</v>
       </c>
       <c r="G70" s="20">
@@ -3246,7 +3260,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>30</v>
@@ -3257,7 +3271,7 @@
       <c r="E71" s="20">
         <v>32.466000000000001</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="32">
         <v>4.0140000000000002</v>
       </c>
       <c r="G71" s="20">
@@ -3281,7 +3295,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>52</v>
@@ -3292,7 +3306,7 @@
       <c r="E72" s="20">
         <v>18.811</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="32">
         <v>2.5470000000000002</v>
       </c>
       <c r="G72" s="20">
@@ -3316,7 +3330,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>53</v>
@@ -3327,7 +3341,7 @@
       <c r="E73" s="20">
         <v>40.426000000000002</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="32">
         <v>3.09</v>
       </c>
       <c r="G73" s="20">
@@ -3351,10 +3365,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="20">
         <v>-99.99</v>
@@ -3362,7 +3376,7 @@
       <c r="E74" s="20">
         <v>26.51</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="32">
         <v>1.502</v>
       </c>
       <c r="G74" s="20">
@@ -3386,10 +3400,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="20">
         <v>-99.99</v>
@@ -3397,7 +3411,7 @@
       <c r="E75" s="20">
         <v>29.1</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="32">
         <v>1.5149999999999999</v>
       </c>
       <c r="G75" s="20">
@@ -3428,7 +3442,7 @@
       <c r="E76" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="32">
         <v>-99.99</v>
       </c>
       <c r="G76" s="20">
@@ -3452,7 +3466,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>29</v>
@@ -3463,7 +3477,7 @@
       <c r="E77" s="20">
         <v>0.88100000000000001</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="32">
         <v>85.885999999999996</v>
       </c>
       <c r="G77" s="20">
@@ -3487,7 +3501,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>35</v>
@@ -3498,7 +3512,7 @@
       <c r="E78" s="20">
         <v>1.083</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="32">
         <v>4.1420000000000003</v>
       </c>
       <c r="G78" s="20">
@@ -3522,7 +3536,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>38</v>
@@ -3533,7 +3547,7 @@
       <c r="E79" s="20">
         <v>55.421999999999997</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="32">
         <v>9.4090000000000007</v>
       </c>
       <c r="G79" s="20">
@@ -3557,10 +3571,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="D80" s="20">
         <v>-99.99</v>
@@ -3568,7 +3582,7 @@
       <c r="E80" s="20">
         <v>19.456</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="32">
         <v>2.1619999999999999</v>
       </c>
       <c r="G80" s="20">
@@ -3592,10 +3606,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="20">
         <v>-99.99</v>
@@ -3603,7 +3617,7 @@
       <c r="E81" s="20">
         <v>8.6199999999999992</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="32">
         <v>1.859</v>
       </c>
       <c r="G81" s="20">
@@ -3627,7 +3641,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>55</v>
@@ -3638,7 +3652,7 @@
       <c r="E82" s="20">
         <v>6.6040000000000001</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="32">
         <v>1.4339999999999999</v>
       </c>
       <c r="G82" s="20">
@@ -3662,7 +3676,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>56</v>
@@ -3673,7 +3687,7 @@
       <c r="E83" s="20">
         <v>1.7310000000000001</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="32">
         <v>1.141</v>
       </c>
       <c r="G83" s="20">
@@ -3697,10 +3711,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D84" s="20">
         <v>-99.99</v>
@@ -3708,7 +3722,7 @@
       <c r="E84" s="20">
         <v>4.0469999999999997</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="32">
         <v>1.1140000000000001</v>
       </c>
       <c r="G84" s="20">
@@ -3732,10 +3746,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D85" s="20">
         <v>-99.99</v>
@@ -3743,7 +3757,7 @@
       <c r="E85" s="20">
         <v>4.2960000000000003</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="32">
         <v>1.4630000000000001</v>
       </c>
       <c r="G85" s="20">
@@ -3767,10 +3781,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D86" s="20">
         <v>-99.99</v>
@@ -3778,7 +3792,7 @@
       <c r="E86" s="20">
         <v>3.9089999999999998</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="32">
         <v>0.69699999999999995</v>
       </c>
       <c r="G86" s="20">
@@ -3809,7 +3823,7 @@
       <c r="E87" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="32">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G87" s="20">
@@ -3833,7 +3847,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>29</v>
@@ -3844,7 +3858,7 @@
       <c r="E88" s="20">
         <v>1.125</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F88" s="32">
         <v>50.171999999999997</v>
       </c>
       <c r="G88" s="20">
@@ -3868,7 +3882,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>35</v>
@@ -3879,7 +3893,7 @@
       <c r="E89" s="20">
         <v>1.1240000000000001</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F89" s="32">
         <v>2.0369999999999999</v>
       </c>
       <c r="G89" s="20">
@@ -3903,7 +3917,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>30</v>
@@ -3914,7 +3928,7 @@
       <c r="E90" s="20">
         <v>14.509</v>
       </c>
-      <c r="F90" s="20">
+      <c r="F90" s="32">
         <v>2.99</v>
       </c>
       <c r="G90" s="20">
@@ -3938,7 +3952,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>52</v>
@@ -3949,7 +3963,7 @@
       <c r="E91" s="20">
         <v>15.773999999999999</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="32">
         <v>2.8690000000000002</v>
       </c>
       <c r="G91" s="20">
@@ -3973,7 +3987,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>53</v>
@@ -3984,7 +3998,7 @@
       <c r="E92" s="20">
         <v>11.94</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F92" s="32">
         <v>2.6080000000000001</v>
       </c>
       <c r="G92" s="20">
@@ -4008,7 +4022,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>39</v>
@@ -4019,7 +4033,7 @@
       <c r="E93" s="20">
         <v>4.556</v>
       </c>
-      <c r="F93" s="20">
+      <c r="F93" s="32">
         <v>1.714</v>
       </c>
       <c r="G93" s="20">
@@ -4043,7 +4057,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>40</v>
@@ -4054,7 +4068,7 @@
       <c r="E94" s="20">
         <v>1.7869999999999999</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="32">
         <v>1.0229999999999999</v>
       </c>
       <c r="G94" s="20">
@@ -4078,7 +4092,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>33</v>
@@ -4089,7 +4103,7 @@
       <c r="E95" s="20">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F95" s="20">
+      <c r="F95" s="32">
         <v>0.7</v>
       </c>
       <c r="G95" s="20">
@@ -4113,7 +4127,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>46</v>
@@ -4124,7 +4138,7 @@
       <c r="E96" s="20">
         <v>0.52800000000000002</v>
       </c>
-      <c r="F96" s="20">
+      <c r="F96" s="32">
         <v>0.36899999999999999</v>
       </c>
       <c r="G96" s="20">
@@ -4148,10 +4162,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D97" s="20">
         <v>-99.99</v>
@@ -4159,7 +4173,7 @@
       <c r="E97" s="20">
         <v>1.8520000000000001</v>
       </c>
-      <c r="F97" s="20">
+      <c r="F97" s="32">
         <v>0.76</v>
       </c>
       <c r="G97" s="20">
@@ -4190,7 +4204,7 @@
       <c r="E98" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F98" s="20">
+      <c r="F98" s="32">
         <v>-99.99</v>
       </c>
       <c r="G98" s="20">
@@ -4214,7 +4228,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>29</v>
@@ -4225,7 +4239,7 @@
       <c r="E99" s="20">
         <v>1.2589999999999999</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F99" s="32">
         <v>3.3119999999999998</v>
       </c>
       <c r="G99" s="20">
@@ -4249,7 +4263,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>35</v>
@@ -4260,7 +4274,7 @@
       <c r="E100" s="20">
         <v>1.7669999999999999</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="32">
         <v>0.61599999999999999</v>
       </c>
       <c r="G100" s="20">
@@ -4284,7 +4298,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>38</v>
@@ -4295,7 +4309,7 @@
       <c r="E101" s="20">
         <v>12.379</v>
       </c>
-      <c r="F101" s="20">
+      <c r="F101" s="32">
         <v>1.171</v>
       </c>
       <c r="G101" s="20">
@@ -4319,10 +4333,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D102" s="20">
         <v>-99.99</v>
@@ -4330,7 +4344,7 @@
       <c r="E102" s="20">
         <v>6.4660000000000002</v>
       </c>
-      <c r="F102" s="20">
+      <c r="F102" s="32">
         <v>1.177</v>
       </c>
       <c r="G102" s="20">
@@ -4354,10 +4368,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="D103" s="20">
         <v>-99.99</v>
@@ -4365,7 +4379,7 @@
       <c r="E103" s="20">
         <v>1.454</v>
       </c>
-      <c r="F103" s="20">
+      <c r="F103" s="32">
         <v>1.425</v>
       </c>
       <c r="G103" s="20">
@@ -4389,10 +4403,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D104" s="20">
         <v>-99.99</v>
@@ -4400,7 +4414,7 @@
       <c r="E104" s="20">
         <v>1.006</v>
       </c>
-      <c r="F104" s="20">
+      <c r="F104" s="32">
         <v>1.038</v>
       </c>
       <c r="G104" s="20">
@@ -4424,7 +4438,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>55</v>
@@ -4435,7 +4449,7 @@
       <c r="E105" s="20">
         <v>0.64600000000000002</v>
       </c>
-      <c r="F105" s="20">
+      <c r="F105" s="32">
         <v>0.60899999999999999</v>
       </c>
       <c r="G105" s="20">
@@ -4459,7 +4473,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>56</v>
@@ -4470,7 +4484,7 @@
       <c r="E106" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F106" s="20">
+      <c r="F106" s="32">
         <v>0.61199999999999999</v>
       </c>
       <c r="G106" s="20">
@@ -4494,10 +4508,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D107" s="20">
         <v>-99.99</v>
@@ -4505,7 +4519,7 @@
       <c r="E107" s="20">
         <v>0.64900000000000002</v>
       </c>
-      <c r="F107" s="20">
+      <c r="F107" s="32">
         <v>0.53800000000000003</v>
       </c>
       <c r="G107" s="20">
@@ -4529,10 +4543,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D108" s="20">
         <v>-99.99</v>
@@ -4540,7 +4554,7 @@
       <c r="E108" s="20">
         <v>7.7320000000000002</v>
       </c>
-      <c r="F108" s="20">
+      <c r="F108" s="32">
         <v>0.82499999999999996</v>
       </c>
       <c r="G108" s="20">
@@ -4571,7 +4585,7 @@
       <c r="E109" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F109" s="20">
+      <c r="F109" s="32">
         <v>-99.99</v>
       </c>
       <c r="G109" s="20">
@@ -4595,10 +4609,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D110" s="20">
         <v>-99.99</v>
@@ -4606,7 +4620,7 @@
       <c r="E110" s="20">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F110" s="20">
+      <c r="F110" s="32">
         <v>0.47499999999999998</v>
       </c>
       <c r="G110" s="20">
@@ -4630,10 +4644,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D111" s="20">
         <v>-99.99</v>
@@ -4641,7 +4655,7 @@
       <c r="E111" s="20">
         <v>0.53400000000000003</v>
       </c>
-      <c r="F111" s="20">
+      <c r="F111" s="32">
         <v>0.54800000000000004</v>
       </c>
       <c r="G111" s="20">
@@ -4665,10 +4679,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D112" s="20">
         <v>-99.99</v>
@@ -4676,7 +4690,7 @@
       <c r="E112" s="20">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F112" s="32">
         <v>17.827000000000002</v>
       </c>
       <c r="G112" s="20">
@@ -4700,7 +4714,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>26</v>
@@ -4711,7 +4725,7 @@
       <c r="E113" s="20">
         <v>2.452</v>
       </c>
-      <c r="F113" s="20">
+      <c r="F113" s="32">
         <v>2.4750000000000001</v>
       </c>
       <c r="G113" s="20">
@@ -4735,7 +4749,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>27</v>
@@ -4746,7 +4760,7 @@
       <c r="E114" s="20">
         <v>2.65</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F114" s="32">
         <v>4.0090000000000003</v>
       </c>
       <c r="G114" s="20">
@@ -4770,7 +4784,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>30</v>
@@ -4781,7 +4795,7 @@
       <c r="E115" s="20">
         <v>2.089</v>
       </c>
-      <c r="F115" s="20">
+      <c r="F115" s="32">
         <v>0.63200000000000001</v>
       </c>
       <c r="G115" s="20">
@@ -4805,7 +4819,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>52</v>
@@ -4816,7 +4830,7 @@
       <c r="E116" s="20">
         <v>2.7</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" s="32">
         <v>0.86799999999999999</v>
       </c>
       <c r="G116" s="20">
@@ -4840,7 +4854,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C117" s="17" t="s">
         <v>53</v>
@@ -4851,7 +4865,7 @@
       <c r="E117" s="20">
         <v>1.9670000000000001</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F117" s="32">
         <v>1.0609999999999999</v>
       </c>
       <c r="G117" s="20">
@@ -4882,7 +4896,7 @@
       <c r="E118" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="32">
         <v>-99.99</v>
       </c>
       <c r="G118" s="20">
@@ -4906,10 +4920,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D119" s="20">
         <v>0.90300000000000002</v>
@@ -4917,7 +4931,7 @@
       <c r="E119" s="20">
         <v>2.1429999999999998</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F119" s="32">
         <v>0.89800000000000002</v>
       </c>
       <c r="G119" s="20">
@@ -4941,10 +4955,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D120" s="20">
         <v>0.36499999999999999</v>
@@ -4952,7 +4966,7 @@
       <c r="E120" s="20">
         <v>1.5229999999999999</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="32">
         <v>0.78400000000000003</v>
       </c>
       <c r="G120" s="20">
@@ -4976,10 +4990,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D121" s="20">
         <v>-99.99</v>
@@ -4987,7 +5001,7 @@
       <c r="E121" s="20">
         <v>1.62</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F121" s="32">
         <v>0.65700000000000003</v>
       </c>
       <c r="G121" s="20">
@@ -5011,7 +5025,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>55</v>
@@ -5022,7 +5036,7 @@
       <c r="E122" s="20">
         <v>1.351</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F122" s="32">
         <v>0.59799999999999998</v>
       </c>
       <c r="G122" s="20">
@@ -5046,7 +5060,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>56</v>
@@ -5057,7 +5071,7 @@
       <c r="E123" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="32">
         <v>0.56999999999999995</v>
       </c>
       <c r="G123" s="20">
@@ -5081,10 +5095,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D124" s="20">
         <v>-99.99</v>
@@ -5092,7 +5106,7 @@
       <c r="E124" s="20">
         <v>0.70699999999999996</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F124" s="32">
         <v>0.41099999999999998</v>
       </c>
       <c r="G124" s="20">
@@ -5116,10 +5130,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D125" s="20">
         <v>-99.99</v>
@@ -5127,7 +5141,7 @@
       <c r="E125" s="20">
         <v>0.79600000000000004</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F125" s="32">
         <v>0.40500000000000003</v>
       </c>
       <c r="G125" s="20">
@@ -5151,10 +5165,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D126" s="20">
         <v>0.23799999999999999</v>
@@ -5162,7 +5176,7 @@
       <c r="E126" s="20">
         <v>1.873</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="32">
         <v>1.018</v>
       </c>
       <c r="G126" s="20">
@@ -5186,7 +5200,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>29</v>
@@ -5197,7 +5211,7 @@
       <c r="E127" s="20">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F127" s="32">
         <v>54.841999999999999</v>
       </c>
       <c r="G127" s="20">
@@ -5221,7 +5235,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>26</v>
@@ -5232,7 +5246,7 @@
       <c r="E128" s="20">
         <v>0.245</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="32">
         <v>0.59099999999999997</v>
       </c>
       <c r="G128" s="20">
@@ -5263,7 +5277,7 @@
       <c r="E129" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="32">
         <v>-99.99</v>
       </c>
       <c r="G129" s="20">
@@ -5287,7 +5301,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>27</v>
@@ -5298,7 +5312,7 @@
       <c r="E130" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="32">
         <v>0.69799999999999995</v>
       </c>
       <c r="G130" s="20">
@@ -5322,10 +5336,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D131" s="20">
         <v>-99.99</v>
@@ -5333,7 +5347,7 @@
       <c r="E131" s="20">
         <v>1.4330000000000001</v>
       </c>
-      <c r="F131" s="20">
+      <c r="F131" s="32">
         <v>1.712</v>
       </c>
       <c r="G131" s="20">
@@ -5368,7 +5382,7 @@
       <c r="E132" s="20">
         <v>5.27</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="32">
         <v>4.944</v>
       </c>
       <c r="G132" s="20">
@@ -5401,7 +5415,7 @@
       <c r="E133" s="20">
         <v>6.2480000000000002</v>
       </c>
-      <c r="F133" s="20">
+      <c r="F133" s="32">
         <v>1.1499999999999999</v>
       </c>
       <c r="G133" s="20">
@@ -5429,47 +5443,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DD3F62-B5ED-5E4C-B890-EB8493466140}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5485,11 +5499,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -5499,11 +5513,11 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5513,11 +5527,11 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="22">
         <v>5593</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5527,11 +5541,11 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="26">
         <v>44301</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5541,11 +5555,11 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="26">
         <v>44306</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5555,11 +5569,11 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5569,11 +5583,11 @@
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="29">
         <v>1457.28</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -5590,30 +5604,30 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{A9470342-9082-6945-8C44-D1267B4B0C49}"/>

--- a/data/raw/CationExtractions_raw.xlsx
+++ b/data/raw/CationExtractions_raw.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penninoa/Documents/VT/Data/MyData/Soil_Analyses/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510874A5-AA67-CB40-AF9C-6E409E1B8AFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79453104-AFBB-D24A-AD98-68CE4D94F820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="740" windowWidth="27640" windowHeight="16500" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16500" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="98">
   <si>
     <t>Virginia Tech Soil Testing Laboratory</t>
   </si>
@@ -193,18 +202,6 @@
     <t>52_3_X3.1</t>
   </si>
   <si>
-    <t>BC1</t>
-  </si>
-  <si>
-    <t>BC2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>52_2_X2.1</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>42_2_V2.1</t>
   </si>
   <si>
-    <t>E4</t>
-  </si>
-  <si>
     <t>86_3_W3.2</t>
   </si>
   <si>
@@ -238,18 +232,6 @@
     <t>Bs1</t>
   </si>
   <si>
-    <t>Bs2</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>42_4_V4.1</t>
   </si>
   <si>
@@ -262,12 +244,6 @@
     <t>Bs2.2</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>86_2_W2.1</t>
   </si>
   <si>
@@ -280,9 +256,6 @@
     <t>Bhs3.3</t>
   </si>
   <si>
-    <t>Bs3</t>
-  </si>
-  <si>
     <t>Data reported as mg/L in solution. The "-99.99" indicates concentrations less than the instrument detection limit.</t>
   </si>
   <si>
@@ -292,7 +265,70 @@
     <t>Bhs2.3</t>
   </si>
   <si>
-    <t>D10</t>
+    <t>BC.1</t>
+  </si>
+  <si>
+    <t>BC.2</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.3</t>
+  </si>
+  <si>
+    <t>E.1</t>
+  </si>
+  <si>
+    <t>E.2</t>
+  </si>
+  <si>
+    <t>E.3</t>
+  </si>
+  <si>
+    <t>E.4</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>D.16</t>
+  </si>
+  <si>
+    <t>BC.3</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>Bs.1</t>
+  </si>
+  <si>
+    <t>Bs.2</t>
+  </si>
+  <si>
+    <t>Bs.3</t>
+  </si>
+  <si>
+    <t>C.2</t>
+  </si>
+  <si>
+    <t>Bh.1</t>
+  </si>
+  <si>
+    <t>Bh.2</t>
+  </si>
+  <si>
+    <t>D.10</t>
   </si>
 </sst>
 </file>
@@ -468,6 +504,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -494,15 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -821,15 +857,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB117DD-7230-9241-B114-EEEE02930CE9}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="14"/>
     <col min="4" max="5" width="10.83203125" style="21"/>
-    <col min="6" max="6" width="10.83203125" style="33"/>
+    <col min="6" max="6" width="10.83203125" style="24"/>
     <col min="7" max="11" width="10.83203125" style="21"/>
     <col min="12" max="16384" width="10.83203125" style="11"/>
   </cols>
@@ -850,7 +886,7 @@
       <c r="E1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="19" t="s">
@@ -880,7 +916,7 @@
       <c r="E2" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="23">
         <v>9.4E-2</v>
       </c>
       <c r="G2" s="20">
@@ -915,7 +951,7 @@
       <c r="E3" s="20">
         <v>6.8680000000000003</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="23">
         <v>0.86</v>
       </c>
       <c r="G3" s="20">
@@ -950,7 +986,7 @@
       <c r="E4" s="20">
         <v>4.2569999999999997</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="23">
         <v>0.48099999999999998</v>
       </c>
       <c r="G4" s="20">
@@ -985,7 +1021,7 @@
       <c r="E5" s="20">
         <v>4.3460000000000001</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="23">
         <v>8.3089999999999993</v>
       </c>
       <c r="G5" s="20">
@@ -1020,7 +1056,7 @@
       <c r="E6" s="20">
         <v>10.504</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="23">
         <v>1.046</v>
       </c>
       <c r="G6" s="20">
@@ -1055,7 +1091,7 @@
       <c r="E7" s="20">
         <v>2.6720000000000002</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="23">
         <v>0.93</v>
       </c>
       <c r="G7" s="20">
@@ -1090,7 +1126,7 @@
       <c r="E8" s="20">
         <v>3.073</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="23">
         <v>1.016</v>
       </c>
       <c r="G8" s="20">
@@ -1125,7 +1161,7 @@
       <c r="E9" s="20">
         <v>4.6689999999999996</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="23">
         <v>1.198</v>
       </c>
       <c r="G9" s="20">
@@ -1160,7 +1196,7 @@
       <c r="E10" s="20">
         <v>2.226</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="23">
         <v>52.545999999999999</v>
       </c>
       <c r="G10" s="20">
@@ -1195,7 +1231,7 @@
       <c r="E11" s="20">
         <v>2.5640000000000001</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="23">
         <v>3.0680000000000001</v>
       </c>
       <c r="G11" s="20">
@@ -1230,7 +1266,7 @@
       <c r="E12" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="23">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G12" s="20">
@@ -1261,7 +1297,7 @@
       <c r="E13" s="20">
         <v>59.514000000000003</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="23">
         <v>2.4420000000000002</v>
       </c>
       <c r="G13" s="20">
@@ -1296,7 +1332,7 @@
       <c r="E14" s="20">
         <v>15.175000000000001</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="23">
         <v>1.581</v>
       </c>
       <c r="G14" s="20">
@@ -1331,7 +1367,7 @@
       <c r="E15" s="20">
         <v>1.367</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="23">
         <v>0.84099999999999997</v>
       </c>
       <c r="G15" s="20">
@@ -1366,7 +1402,7 @@
       <c r="E16" s="20">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="23">
         <v>0.59799999999999998</v>
       </c>
       <c r="G16" s="20">
@@ -1401,7 +1437,7 @@
       <c r="E17" s="20">
         <v>0.94799999999999995</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="23">
         <v>2.6890000000000001</v>
       </c>
       <c r="G17" s="20">
@@ -1436,7 +1472,7 @@
       <c r="E18" s="20">
         <v>0.879</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="23">
         <v>1.9470000000000001</v>
       </c>
       <c r="G18" s="20">
@@ -1471,7 +1507,7 @@
       <c r="E19" s="20">
         <v>1.1160000000000001</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="23">
         <v>1.48</v>
       </c>
       <c r="G19" s="20">
@@ -1506,7 +1542,7 @@
       <c r="E20" s="20">
         <v>8.0250000000000004</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="23">
         <v>2.3260000000000001</v>
       </c>
       <c r="G20" s="20">
@@ -1541,7 +1577,7 @@
       <c r="E21" s="20">
         <v>5.4459999999999997</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="23">
         <v>4.968</v>
       </c>
       <c r="G21" s="20">
@@ -1572,7 +1608,7 @@
       <c r="E22" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="23">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G22" s="20">
@@ -1607,7 +1643,7 @@
       <c r="E23" s="20">
         <v>6.9509999999999996</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="23">
         <v>2.339</v>
       </c>
       <c r="G23" s="20">
@@ -1642,7 +1678,7 @@
       <c r="E24" s="20">
         <v>4.21</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="23">
         <v>1.0169999999999999</v>
       </c>
       <c r="G24" s="20">
@@ -1677,7 +1713,7 @@
       <c r="E25" s="20">
         <v>3.5219999999999998</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="23">
         <v>2.2839999999999998</v>
       </c>
       <c r="G25" s="20">
@@ -1712,7 +1748,7 @@
       <c r="E26" s="20">
         <v>1.9430000000000001</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="23">
         <v>1.5940000000000001</v>
       </c>
       <c r="G26" s="20">
@@ -1747,7 +1783,7 @@
       <c r="E27" s="20">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="23">
         <v>11.458</v>
       </c>
       <c r="G27" s="20">
@@ -1782,7 +1818,7 @@
       <c r="E28" s="20">
         <v>0.112</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="23">
         <v>0.41</v>
       </c>
       <c r="G28" s="20">
@@ -1817,7 +1853,7 @@
       <c r="E29" s="20">
         <v>16.87</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="23">
         <v>0.94899999999999995</v>
       </c>
       <c r="G29" s="20">
@@ -1852,7 +1888,7 @@
       <c r="E30" s="20">
         <v>0.48</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="23">
         <v>0.628</v>
       </c>
       <c r="G30" s="20">
@@ -1887,7 +1923,7 @@
       <c r="E31" s="20">
         <v>0.42099999999999999</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="23">
         <v>0.32200000000000001</v>
       </c>
       <c r="G31" s="20">
@@ -1922,7 +1958,7 @@
       <c r="E32" s="20">
         <v>5.0789999999999997</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="23">
         <v>33.689</v>
       </c>
       <c r="G32" s="20">
@@ -1953,7 +1989,7 @@
       <c r="E33" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="23">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="G33" s="20">
@@ -1988,7 +2024,7 @@
       <c r="E34" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="23">
         <v>0.77400000000000002</v>
       </c>
       <c r="G34" s="20">
@@ -2023,7 +2059,7 @@
       <c r="E35" s="20">
         <v>1.07</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="23">
         <v>6.63</v>
       </c>
       <c r="G35" s="20">
@@ -2058,7 +2094,7 @@
       <c r="E36" s="20">
         <v>1.9430000000000001</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="23">
         <v>5.218</v>
       </c>
       <c r="G36" s="20">
@@ -2093,7 +2129,7 @@
       <c r="E37" s="20">
         <v>2.3319999999999999</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="23">
         <v>2.4980000000000002</v>
       </c>
       <c r="G37" s="20">
@@ -2128,7 +2164,7 @@
       <c r="E38" s="20">
         <v>3.5289999999999999</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="23">
         <v>0.85099999999999998</v>
       </c>
       <c r="G38" s="20">
@@ -2163,7 +2199,7 @@
       <c r="E39" s="20">
         <v>0.56899999999999995</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="23">
         <v>26.905000000000001</v>
       </c>
       <c r="G39" s="20">
@@ -2198,7 +2234,7 @@
       <c r="E40" s="20">
         <v>0.38100000000000001</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="23">
         <v>4.3890000000000002</v>
       </c>
       <c r="G40" s="20">
@@ -2233,7 +2269,7 @@
       <c r="E41" s="20">
         <v>39.302</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="23">
         <v>8.2360000000000007</v>
       </c>
       <c r="G41" s="20">
@@ -2268,7 +2304,7 @@
       <c r="E42" s="20">
         <v>3.141</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="23">
         <v>2.4710000000000001</v>
       </c>
       <c r="G42" s="20">
@@ -2303,7 +2339,7 @@
       <c r="E43" s="20">
         <v>1.72</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="23">
         <v>2.7389999999999999</v>
       </c>
       <c r="G43" s="20">
@@ -2334,7 +2370,7 @@
       <c r="E44" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="23">
         <v>0.104</v>
       </c>
       <c r="G44" s="20">
@@ -2361,7 +2397,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D45" s="20">
         <v>4.0860000000000003</v>
@@ -2369,7 +2405,7 @@
       <c r="E45" s="20">
         <v>0.88300000000000001</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="23">
         <v>24.902999999999999</v>
       </c>
       <c r="G45" s="20">
@@ -2404,7 +2440,7 @@
       <c r="E46" s="20">
         <v>1.5680000000000001</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="23">
         <v>6.2610000000000001</v>
       </c>
       <c r="G46" s="20">
@@ -2439,7 +2475,7 @@
       <c r="E47" s="20">
         <v>1.9690000000000001</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="23">
         <v>5.7919999999999998</v>
       </c>
       <c r="G47" s="20">
@@ -2474,7 +2510,7 @@
       <c r="E48" s="20">
         <v>1.1759999999999999</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="23">
         <v>3.0339999999999998</v>
       </c>
       <c r="G48" s="20">
@@ -2509,7 +2545,7 @@
       <c r="E49" s="20">
         <v>1.92</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="23">
         <v>7.53</v>
       </c>
       <c r="G49" s="20">
@@ -2544,7 +2580,7 @@
       <c r="E50" s="20">
         <v>2.1789999999999998</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="23">
         <v>0.84799999999999998</v>
       </c>
       <c r="G50" s="20">
@@ -2579,7 +2615,7 @@
       <c r="E51" s="20">
         <v>25.356999999999999</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="23">
         <v>1.8680000000000001</v>
       </c>
       <c r="G51" s="20">
@@ -2614,7 +2650,7 @@
       <c r="E52" s="20">
         <v>13.01</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="23">
         <v>1.6850000000000001</v>
       </c>
       <c r="G52" s="20">
@@ -2649,7 +2685,7 @@
       <c r="E53" s="20">
         <v>4.7290000000000001</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="23">
         <v>1.034</v>
       </c>
       <c r="G53" s="20">
@@ -2676,7 +2712,7 @@
         <v>54</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D54" s="20">
         <v>-99.99</v>
@@ -2684,7 +2720,7 @@
       <c r="E54" s="20">
         <v>2.7530000000000001</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="23">
         <v>1.2310000000000001</v>
       </c>
       <c r="G54" s="20">
@@ -2715,7 +2751,7 @@
       <c r="E55" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="23">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G55" s="20">
@@ -2742,7 +2778,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D56" s="20">
         <v>-99.99</v>
@@ -2750,7 +2786,7 @@
       <c r="E56" s="20">
         <v>0.80200000000000005</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="23">
         <v>0.77900000000000003</v>
       </c>
       <c r="G56" s="20">
@@ -2777,7 +2813,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D57" s="20">
         <v>-99.99</v>
@@ -2785,7 +2821,7 @@
       <c r="E57" s="20">
         <v>0.68400000000000005</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="23">
         <v>0.49099999999999999</v>
       </c>
       <c r="G57" s="20">
@@ -2812,7 +2848,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D58" s="20">
         <v>0.88900000000000001</v>
@@ -2820,7 +2856,7 @@
       <c r="E58" s="20">
         <v>3.427</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="23">
         <v>8.0649999999999995</v>
       </c>
       <c r="G58" s="20">
@@ -2847,7 +2883,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D59" s="20">
         <v>-99.99</v>
@@ -2855,7 +2891,7 @@
       <c r="E59" s="20">
         <v>0.93500000000000005</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="23">
         <v>4.6719999999999997</v>
       </c>
       <c r="G59" s="20">
@@ -2879,10 +2915,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D60" s="20">
         <v>-99.99</v>
@@ -2890,7 +2926,7 @@
       <c r="E60" s="20">
         <v>3.7450000000000001</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="23">
         <v>0.80800000000000005</v>
       </c>
       <c r="G60" s="20">
@@ -2914,10 +2950,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D61" s="20">
         <v>-99.99</v>
@@ -2925,7 +2961,7 @@
       <c r="E61" s="20">
         <v>3.1440000000000001</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="23">
         <v>0.68300000000000005</v>
       </c>
       <c r="G61" s="20">
@@ -2949,7 +2985,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>27</v>
@@ -2960,7 +2996,7 @@
       <c r="E62" s="20">
         <v>2.1539999999999999</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="23">
         <v>0.49199999999999999</v>
       </c>
       <c r="G62" s="20">
@@ -2984,7 +3020,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>29</v>
@@ -2995,7 +3031,7 @@
       <c r="E63" s="20">
         <v>7.7380000000000004</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="23">
         <v>8.0640000000000001</v>
       </c>
       <c r="G63" s="20">
@@ -3019,10 +3055,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D64" s="20">
         <v>2.3079999999999998</v>
@@ -3030,7 +3066,7 @@
       <c r="E64" s="20">
         <v>2.6219999999999999</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F64" s="23">
         <v>0.99</v>
       </c>
       <c r="G64" s="20">
@@ -3061,7 +3097,7 @@
       <c r="E65" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="23">
         <v>-99.99</v>
       </c>
       <c r="G65" s="20">
@@ -3085,10 +3121,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D66" s="20">
         <v>-99.99</v>
@@ -3096,7 +3132,7 @@
       <c r="E66" s="20">
         <v>2.702</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="23">
         <v>0.436</v>
       </c>
       <c r="G66" s="20">
@@ -3120,10 +3156,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D67" s="20">
         <v>0.13100000000000001</v>
@@ -3131,7 +3167,7 @@
       <c r="E67" s="20">
         <v>5.32</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="23">
         <v>0.39400000000000002</v>
       </c>
       <c r="G67" s="20">
@@ -3155,10 +3191,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D68" s="20">
         <v>-99.99</v>
@@ -3166,7 +3202,7 @@
       <c r="E68" s="20">
         <v>4.3570000000000002</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F68" s="23">
         <v>0.39600000000000002</v>
       </c>
       <c r="G68" s="20">
@@ -3190,7 +3226,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>29</v>
@@ -3201,7 +3237,7 @@
       <c r="E69" s="20">
         <v>0.85399999999999998</v>
       </c>
-      <c r="F69" s="32">
+      <c r="F69" s="23">
         <v>59.976999999999997</v>
       </c>
       <c r="G69" s="20">
@@ -3225,10 +3261,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D70" s="20">
         <v>-99.99</v>
@@ -3236,7 +3272,7 @@
       <c r="E70" s="20">
         <v>22.393000000000001</v>
       </c>
-      <c r="F70" s="32">
+      <c r="F70" s="23">
         <v>8.8109999999999999</v>
       </c>
       <c r="G70" s="20">
@@ -3260,7 +3296,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>30</v>
@@ -3271,7 +3307,7 @@
       <c r="E71" s="20">
         <v>32.466000000000001</v>
       </c>
-      <c r="F71" s="32">
+      <c r="F71" s="23">
         <v>4.0140000000000002</v>
       </c>
       <c r="G71" s="20">
@@ -3295,7 +3331,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>52</v>
@@ -3306,7 +3342,7 @@
       <c r="E72" s="20">
         <v>18.811</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="23">
         <v>2.5470000000000002</v>
       </c>
       <c r="G72" s="20">
@@ -3330,7 +3366,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>53</v>
@@ -3341,7 +3377,7 @@
       <c r="E73" s="20">
         <v>40.426000000000002</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F73" s="23">
         <v>3.09</v>
       </c>
       <c r="G73" s="20">
@@ -3365,10 +3401,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D74" s="20">
         <v>-99.99</v>
@@ -3376,7 +3412,7 @@
       <c r="E74" s="20">
         <v>26.51</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F74" s="23">
         <v>1.502</v>
       </c>
       <c r="G74" s="20">
@@ -3400,10 +3436,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D75" s="20">
         <v>-99.99</v>
@@ -3411,7 +3447,7 @@
       <c r="E75" s="20">
         <v>29.1</v>
       </c>
-      <c r="F75" s="32">
+      <c r="F75" s="23">
         <v>1.5149999999999999</v>
       </c>
       <c r="G75" s="20">
@@ -3442,7 +3478,7 @@
       <c r="E76" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F76" s="23">
         <v>-99.99</v>
       </c>
       <c r="G76" s="20">
@@ -3466,7 +3502,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>29</v>
@@ -3477,7 +3513,7 @@
       <c r="E77" s="20">
         <v>0.88100000000000001</v>
       </c>
-      <c r="F77" s="32">
+      <c r="F77" s="23">
         <v>85.885999999999996</v>
       </c>
       <c r="G77" s="20">
@@ -3501,7 +3537,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>35</v>
@@ -3512,7 +3548,7 @@
       <c r="E78" s="20">
         <v>1.083</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F78" s="23">
         <v>4.1420000000000003</v>
       </c>
       <c r="G78" s="20">
@@ -3536,7 +3572,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>38</v>
@@ -3547,7 +3583,7 @@
       <c r="E79" s="20">
         <v>55.421999999999997</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="23">
         <v>9.4090000000000007</v>
       </c>
       <c r="G79" s="20">
@@ -3571,10 +3607,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D80" s="20">
         <v>-99.99</v>
@@ -3582,7 +3618,7 @@
       <c r="E80" s="20">
         <v>19.456</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F80" s="23">
         <v>2.1619999999999999</v>
       </c>
       <c r="G80" s="20">
@@ -3606,10 +3642,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D81" s="20">
         <v>-99.99</v>
@@ -3617,7 +3653,7 @@
       <c r="E81" s="20">
         <v>8.6199999999999992</v>
       </c>
-      <c r="F81" s="32">
+      <c r="F81" s="23">
         <v>1.859</v>
       </c>
       <c r="G81" s="20">
@@ -3641,10 +3677,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D82" s="20">
         <v>-99.99</v>
@@ -3652,7 +3688,7 @@
       <c r="E82" s="20">
         <v>6.6040000000000001</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="23">
         <v>1.4339999999999999</v>
       </c>
       <c r="G82" s="20">
@@ -3676,10 +3712,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D83" s="20">
         <v>-99.99</v>
@@ -3687,7 +3723,7 @@
       <c r="E83" s="20">
         <v>1.7310000000000001</v>
       </c>
-      <c r="F83" s="32">
+      <c r="F83" s="23">
         <v>1.141</v>
       </c>
       <c r="G83" s="20">
@@ -3711,10 +3747,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D84" s="20">
         <v>-99.99</v>
@@ -3722,7 +3758,7 @@
       <c r="E84" s="20">
         <v>4.0469999999999997</v>
       </c>
-      <c r="F84" s="32">
+      <c r="F84" s="23">
         <v>1.1140000000000001</v>
       </c>
       <c r="G84" s="20">
@@ -3746,10 +3782,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D85" s="20">
         <v>-99.99</v>
@@ -3757,7 +3793,7 @@
       <c r="E85" s="20">
         <v>4.2960000000000003</v>
       </c>
-      <c r="F85" s="32">
+      <c r="F85" s="23">
         <v>1.4630000000000001</v>
       </c>
       <c r="G85" s="20">
@@ -3781,10 +3817,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D86" s="20">
         <v>-99.99</v>
@@ -3792,7 +3828,7 @@
       <c r="E86" s="20">
         <v>3.9089999999999998</v>
       </c>
-      <c r="F86" s="32">
+      <c r="F86" s="23">
         <v>0.69699999999999995</v>
       </c>
       <c r="G86" s="20">
@@ -3823,7 +3859,7 @@
       <c r="E87" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F87" s="32">
+      <c r="F87" s="23">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G87" s="20">
@@ -3847,7 +3883,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>29</v>
@@ -3858,7 +3894,7 @@
       <c r="E88" s="20">
         <v>1.125</v>
       </c>
-      <c r="F88" s="32">
+      <c r="F88" s="23">
         <v>50.171999999999997</v>
       </c>
       <c r="G88" s="20">
@@ -3882,7 +3918,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>35</v>
@@ -3893,7 +3929,7 @@
       <c r="E89" s="20">
         <v>1.1240000000000001</v>
       </c>
-      <c r="F89" s="32">
+      <c r="F89" s="23">
         <v>2.0369999999999999</v>
       </c>
       <c r="G89" s="20">
@@ -3917,7 +3953,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>30</v>
@@ -3928,7 +3964,7 @@
       <c r="E90" s="20">
         <v>14.509</v>
       </c>
-      <c r="F90" s="32">
+      <c r="F90" s="23">
         <v>2.99</v>
       </c>
       <c r="G90" s="20">
@@ -3952,7 +3988,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>52</v>
@@ -3963,7 +3999,7 @@
       <c r="E91" s="20">
         <v>15.773999999999999</v>
       </c>
-      <c r="F91" s="32">
+      <c r="F91" s="23">
         <v>2.8690000000000002</v>
       </c>
       <c r="G91" s="20">
@@ -3987,7 +4023,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>53</v>
@@ -3998,7 +4034,7 @@
       <c r="E92" s="20">
         <v>11.94</v>
       </c>
-      <c r="F92" s="32">
+      <c r="F92" s="23">
         <v>2.6080000000000001</v>
       </c>
       <c r="G92" s="20">
@@ -4022,10 +4058,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D93" s="20">
         <v>-99.99</v>
@@ -4033,7 +4069,7 @@
       <c r="E93" s="20">
         <v>4.556</v>
       </c>
-      <c r="F93" s="32">
+      <c r="F93" s="23">
         <v>1.714</v>
       </c>
       <c r="G93" s="20">
@@ -4057,10 +4093,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="D94" s="20">
         <v>-99.99</v>
@@ -4068,7 +4104,7 @@
       <c r="E94" s="20">
         <v>1.7869999999999999</v>
       </c>
-      <c r="F94" s="32">
+      <c r="F94" s="23">
         <v>1.0229999999999999</v>
       </c>
       <c r="G94" s="20">
@@ -4092,7 +4128,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>33</v>
@@ -4103,7 +4139,7 @@
       <c r="E95" s="20">
         <v>0.90800000000000003</v>
       </c>
-      <c r="F95" s="32">
+      <c r="F95" s="23">
         <v>0.7</v>
       </c>
       <c r="G95" s="20">
@@ -4127,10 +4163,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D96" s="20">
         <v>-99.99</v>
@@ -4138,7 +4174,7 @@
       <c r="E96" s="20">
         <v>0.52800000000000002</v>
       </c>
-      <c r="F96" s="32">
+      <c r="F96" s="23">
         <v>0.36899999999999999</v>
       </c>
       <c r="G96" s="20">
@@ -4162,10 +4198,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D97" s="20">
         <v>-99.99</v>
@@ -4173,7 +4209,7 @@
       <c r="E97" s="20">
         <v>1.8520000000000001</v>
       </c>
-      <c r="F97" s="32">
+      <c r="F97" s="23">
         <v>0.76</v>
       </c>
       <c r="G97" s="20">
@@ -4204,7 +4240,7 @@
       <c r="E98" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F98" s="32">
+      <c r="F98" s="23">
         <v>-99.99</v>
       </c>
       <c r="G98" s="20">
@@ -4228,7 +4264,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>29</v>
@@ -4239,7 +4275,7 @@
       <c r="E99" s="20">
         <v>1.2589999999999999</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F99" s="23">
         <v>3.3119999999999998</v>
       </c>
       <c r="G99" s="20">
@@ -4263,7 +4299,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>35</v>
@@ -4274,7 +4310,7 @@
       <c r="E100" s="20">
         <v>1.7669999999999999</v>
       </c>
-      <c r="F100" s="32">
+      <c r="F100" s="23">
         <v>0.61599999999999999</v>
       </c>
       <c r="G100" s="20">
@@ -4298,7 +4334,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>38</v>
@@ -4309,7 +4345,7 @@
       <c r="E101" s="20">
         <v>12.379</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F101" s="23">
         <v>1.171</v>
       </c>
       <c r="G101" s="20">
@@ -4333,10 +4369,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D102" s="20">
         <v>-99.99</v>
@@ -4344,7 +4380,7 @@
       <c r="E102" s="20">
         <v>6.4660000000000002</v>
       </c>
-      <c r="F102" s="32">
+      <c r="F102" s="23">
         <v>1.177</v>
       </c>
       <c r="G102" s="20">
@@ -4368,10 +4404,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D103" s="20">
         <v>-99.99</v>
@@ -4379,7 +4415,7 @@
       <c r="E103" s="20">
         <v>1.454</v>
       </c>
-      <c r="F103" s="32">
+      <c r="F103" s="23">
         <v>1.425</v>
       </c>
       <c r="G103" s="20">
@@ -4403,10 +4439,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D104" s="20">
         <v>-99.99</v>
@@ -4414,7 +4450,7 @@
       <c r="E104" s="20">
         <v>1.006</v>
       </c>
-      <c r="F104" s="32">
+      <c r="F104" s="23">
         <v>1.038</v>
       </c>
       <c r="G104" s="20">
@@ -4438,10 +4474,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D105" s="20">
         <v>-99.99</v>
@@ -4449,7 +4485,7 @@
       <c r="E105" s="20">
         <v>0.64600000000000002</v>
       </c>
-      <c r="F105" s="32">
+      <c r="F105" s="23">
         <v>0.60899999999999999</v>
       </c>
       <c r="G105" s="20">
@@ -4473,10 +4509,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D106" s="20">
         <v>-99.99</v>
@@ -4484,7 +4520,7 @@
       <c r="E106" s="20">
         <v>0.99099999999999999</v>
       </c>
-      <c r="F106" s="32">
+      <c r="F106" s="23">
         <v>0.61199999999999999</v>
       </c>
       <c r="G106" s="20">
@@ -4508,10 +4544,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D107" s="20">
         <v>-99.99</v>
@@ -4519,7 +4555,7 @@
       <c r="E107" s="20">
         <v>0.64900000000000002</v>
       </c>
-      <c r="F107" s="32">
+      <c r="F107" s="23">
         <v>0.53800000000000003</v>
       </c>
       <c r="G107" s="20">
@@ -4543,10 +4579,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D108" s="20">
         <v>-99.99</v>
@@ -4554,7 +4590,7 @@
       <c r="E108" s="20">
         <v>7.7320000000000002</v>
       </c>
-      <c r="F108" s="32">
+      <c r="F108" s="23">
         <v>0.82499999999999996</v>
       </c>
       <c r="G108" s="20">
@@ -4585,7 +4621,7 @@
       <c r="E109" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F109" s="32">
+      <c r="F109" s="23">
         <v>-99.99</v>
       </c>
       <c r="G109" s="20">
@@ -4609,10 +4645,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D110" s="20">
         <v>-99.99</v>
@@ -4620,7 +4656,7 @@
       <c r="E110" s="20">
         <v>0.65200000000000002</v>
       </c>
-      <c r="F110" s="32">
+      <c r="F110" s="23">
         <v>0.47499999999999998</v>
       </c>
       <c r="G110" s="20">
@@ -4644,10 +4680,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D111" s="20">
         <v>-99.99</v>
@@ -4655,7 +4691,7 @@
       <c r="E111" s="20">
         <v>0.53400000000000003</v>
       </c>
-      <c r="F111" s="32">
+      <c r="F111" s="23">
         <v>0.54800000000000004</v>
       </c>
       <c r="G111" s="20">
@@ -4679,10 +4715,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D112" s="20">
         <v>-99.99</v>
@@ -4690,7 +4726,7 @@
       <c r="E112" s="20">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F112" s="32">
+      <c r="F112" s="23">
         <v>17.827000000000002</v>
       </c>
       <c r="G112" s="20">
@@ -4714,10 +4750,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="D113" s="20">
         <v>-99.99</v>
@@ -4725,7 +4761,7 @@
       <c r="E113" s="20">
         <v>2.452</v>
       </c>
-      <c r="F113" s="32">
+      <c r="F113" s="23">
         <v>2.4750000000000001</v>
       </c>
       <c r="G113" s="20">
@@ -4749,10 +4785,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D114" s="20">
         <v>-99.99</v>
@@ -4760,7 +4796,7 @@
       <c r="E114" s="20">
         <v>2.65</v>
       </c>
-      <c r="F114" s="32">
+      <c r="F114" s="23">
         <v>4.0090000000000003</v>
       </c>
       <c r="G114" s="20">
@@ -4784,7 +4820,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>30</v>
@@ -4795,7 +4831,7 @@
       <c r="E115" s="20">
         <v>2.089</v>
       </c>
-      <c r="F115" s="32">
+      <c r="F115" s="23">
         <v>0.63200000000000001</v>
       </c>
       <c r="G115" s="20">
@@ -4819,7 +4855,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>52</v>
@@ -4830,7 +4866,7 @@
       <c r="E116" s="20">
         <v>2.7</v>
       </c>
-      <c r="F116" s="32">
+      <c r="F116" s="23">
         <v>0.86799999999999999</v>
       </c>
       <c r="G116" s="20">
@@ -4854,7 +4890,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C117" s="17" t="s">
         <v>53</v>
@@ -4865,7 +4901,7 @@
       <c r="E117" s="20">
         <v>1.9670000000000001</v>
       </c>
-      <c r="F117" s="32">
+      <c r="F117" s="23">
         <v>1.0609999999999999</v>
       </c>
       <c r="G117" s="20">
@@ -4896,7 +4932,7 @@
       <c r="E118" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F118" s="32">
+      <c r="F118" s="23">
         <v>-99.99</v>
       </c>
       <c r="G118" s="20">
@@ -4920,10 +4956,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D119" s="20">
         <v>0.90300000000000002</v>
@@ -4931,7 +4967,7 @@
       <c r="E119" s="20">
         <v>2.1429999999999998</v>
       </c>
-      <c r="F119" s="32">
+      <c r="F119" s="23">
         <v>0.89800000000000002</v>
       </c>
       <c r="G119" s="20">
@@ -4955,10 +4991,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D120" s="20">
         <v>0.36499999999999999</v>
@@ -4966,7 +5002,7 @@
       <c r="E120" s="20">
         <v>1.5229999999999999</v>
       </c>
-      <c r="F120" s="32">
+      <c r="F120" s="23">
         <v>0.78400000000000003</v>
       </c>
       <c r="G120" s="20">
@@ -4990,10 +5026,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D121" s="20">
         <v>-99.99</v>
@@ -5001,7 +5037,7 @@
       <c r="E121" s="20">
         <v>1.62</v>
       </c>
-      <c r="F121" s="32">
+      <c r="F121" s="23">
         <v>0.65700000000000003</v>
       </c>
       <c r="G121" s="20">
@@ -5025,10 +5061,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D122" s="20">
         <v>-99.99</v>
@@ -5036,7 +5072,7 @@
       <c r="E122" s="20">
         <v>1.351</v>
       </c>
-      <c r="F122" s="32">
+      <c r="F122" s="23">
         <v>0.59799999999999998</v>
       </c>
       <c r="G122" s="20">
@@ -5060,10 +5096,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D123" s="20">
         <v>-99.99</v>
@@ -5071,7 +5107,7 @@
       <c r="E123" s="20">
         <v>0.98699999999999999</v>
       </c>
-      <c r="F123" s="32">
+      <c r="F123" s="23">
         <v>0.56999999999999995</v>
       </c>
       <c r="G123" s="20">
@@ -5095,10 +5131,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D124" s="20">
         <v>-99.99</v>
@@ -5106,7 +5142,7 @@
       <c r="E124" s="20">
         <v>0.70699999999999996</v>
       </c>
-      <c r="F124" s="32">
+      <c r="F124" s="23">
         <v>0.41099999999999998</v>
       </c>
       <c r="G124" s="20">
@@ -5130,10 +5166,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D125" s="20">
         <v>-99.99</v>
@@ -5141,7 +5177,7 @@
       <c r="E125" s="20">
         <v>0.79600000000000004</v>
       </c>
-      <c r="F125" s="32">
+      <c r="F125" s="23">
         <v>0.40500000000000003</v>
       </c>
       <c r="G125" s="20">
@@ -5165,10 +5201,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D126" s="20">
         <v>0.23799999999999999</v>
@@ -5176,7 +5212,7 @@
       <c r="E126" s="20">
         <v>1.873</v>
       </c>
-      <c r="F126" s="32">
+      <c r="F126" s="23">
         <v>1.018</v>
       </c>
       <c r="G126" s="20">
@@ -5200,7 +5236,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>29</v>
@@ -5211,7 +5247,7 @@
       <c r="E127" s="20">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F127" s="32">
+      <c r="F127" s="23">
         <v>54.841999999999999</v>
       </c>
       <c r="G127" s="20">
@@ -5235,10 +5271,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D128" s="20">
         <v>-99.99</v>
@@ -5246,7 +5282,7 @@
       <c r="E128" s="20">
         <v>0.245</v>
       </c>
-      <c r="F128" s="32">
+      <c r="F128" s="23">
         <v>0.59099999999999997</v>
       </c>
       <c r="G128" s="20">
@@ -5277,7 +5313,7 @@
       <c r="E129" s="20">
         <v>-99.99</v>
       </c>
-      <c r="F129" s="32">
+      <c r="F129" s="23">
         <v>-99.99</v>
       </c>
       <c r="G129" s="20">
@@ -5301,10 +5337,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="D130" s="20">
         <v>-99.99</v>
@@ -5312,7 +5348,7 @@
       <c r="E130" s="20">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F130" s="32">
+      <c r="F130" s="23">
         <v>0.69799999999999995</v>
       </c>
       <c r="G130" s="20">
@@ -5336,10 +5372,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D131" s="20">
         <v>-99.99</v>
@@ -5347,7 +5383,7 @@
       <c r="E131" s="20">
         <v>1.4330000000000001</v>
       </c>
-      <c r="F131" s="32">
+      <c r="F131" s="23">
         <v>1.712</v>
       </c>
       <c r="G131" s="20">
@@ -5382,7 +5418,7 @@
       <c r="E132" s="20">
         <v>5.27</v>
       </c>
-      <c r="F132" s="32">
+      <c r="F132" s="23">
         <v>4.944</v>
       </c>
       <c r="G132" s="20">
@@ -5415,7 +5451,7 @@
       <c r="E133" s="20">
         <v>6.2480000000000002</v>
       </c>
-      <c r="F133" s="32">
+      <c r="F133" s="23">
         <v>1.1499999999999999</v>
       </c>
       <c r="G133" s="20">
@@ -5450,40 +5486,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5499,11 +5535,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -5513,11 +5549,11 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5527,11 +5563,11 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="25">
         <v>5593</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5541,11 +5577,11 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="29">
         <v>44301</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5555,11 +5591,11 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="29">
         <v>44306</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5569,11 +5605,11 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5583,11 +5619,11 @@
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="32">
         <v>1457.28</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -5604,15 +5640,15 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="A13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="10"/>
     </row>
   </sheetData>

--- a/data/raw/CationExtractions_raw.xlsx
+++ b/data/raw/CationExtractions_raw.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79453104-AFBB-D24A-AD98-68CE4D94F820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B67ECB-8038-4A49-AC56-1AD793D55755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16500" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
+    <workbookView xWindow="-1260" yWindow="500" windowWidth="27640" windowHeight="16500" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$133</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -420,12 +423,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -441,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,18 +522,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -539,6 +536,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -857,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB117DD-7230-9241-B114-EEEE02930CE9}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="182" workbookViewId="0">
+      <selection activeCell="C71" sqref="B71:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,69 +1271,69 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+    <row r="12" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="20">
-        <v>-99.99</v>
-      </c>
-      <c r="E12" s="20">
-        <v>-99.99</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="D12" s="36">
+        <v>-99.99</v>
+      </c>
+      <c r="E12" s="36">
+        <v>-99.99</v>
+      </c>
+      <c r="F12" s="36">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G12" s="20">
-        <v>-99.99</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="G12" s="36">
+        <v>-99.99</v>
+      </c>
+      <c r="H12" s="36">
         <v>0.114</v>
       </c>
-      <c r="I12" s="20">
-        <v>-99.99</v>
-      </c>
-      <c r="J12" s="20">
+      <c r="I12" s="36">
+        <v>-99.99</v>
+      </c>
+      <c r="J12" s="36">
         <v>0.315</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="36">
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="20">
-        <v>-99.99</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36">
+        <v>-99.99</v>
+      </c>
+      <c r="E13" s="36">
         <v>59.514000000000003</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="36">
         <v>2.4420000000000002</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="36">
         <v>7.5609999999999999</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="36">
         <v>1.069</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="36">
         <v>1.3080000000000001</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="36">
         <v>2.0760000000000001</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="36">
         <v>3.6459999999999999</v>
       </c>
     </row>
@@ -5471,6 +5492,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K133" xr:uid="{758AD3DA-FFF5-104D-8CB2-0C7A50C6CB47}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5486,40 +5508,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5535,11 +5557,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -5549,11 +5571,11 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5563,11 +5585,11 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="30">
         <v>5593</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5577,11 +5599,11 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="25">
         <v>44301</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5591,11 +5613,11 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="25">
         <v>44306</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5605,11 +5627,11 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5619,11 +5641,11 @@
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="28">
         <v>1457.28</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -5640,30 +5662,30 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A13:G13"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{A9470342-9082-6945-8C44-D1267B4B0C49}"/>

--- a/data/raw/CationExtractions_raw.xlsx
+++ b/data/raw/CationExtractions_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nqpenelope/Documents/uvm/phd/research/data/lab/Exchangeable/VT/Soil_Analyses/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B67ECB-8038-4A49-AC56-1AD793D55755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7897F4-BC61-D94F-A23B-E167AD972D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="500" windowWidth="27640" windowHeight="16500" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16500" xr2:uid="{8060459B-B379-6842-8F4C-08E015D85082}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -423,18 +423,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -450,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,6 +516,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -537,28 +543,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -876,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB117DD-7230-9241-B114-EEEE02930CE9}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="182" workbookViewId="0">
-      <selection activeCell="C71" sqref="B71:C71"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,7 +879,7 @@
     <col min="12" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -926,7 +914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -956,7 +944,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -991,7 +979,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1026,7 +1014,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1061,7 +1049,7 @@
         <v>6.133</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1096,7 +1084,7 @@
         <v>2.1970000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1131,7 +1119,7 @@
         <v>2.3439999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1166,7 +1154,7 @@
         <v>2.7480000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1201,7 +1189,7 @@
         <v>2.923</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1236,7 +1224,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1271,73 +1259,81 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="36">
-        <v>-99.99</v>
-      </c>
-      <c r="E12" s="36">
-        <v>-99.99</v>
-      </c>
-      <c r="F12" s="36">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="G12" s="36">
-        <v>-99.99</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0.114</v>
-      </c>
-      <c r="I12" s="36">
-        <v>-99.99</v>
-      </c>
-      <c r="J12" s="36">
-        <v>0.315</v>
-      </c>
-      <c r="K12" s="36">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="23">
+        <v>-99.99</v>
+      </c>
+      <c r="E12" s="23">
+        <v>59.514000000000003</v>
+      </c>
+      <c r="F12" s="23">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="G12" s="23">
+        <v>7.5609999999999999</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1.069</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="J12" s="23">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="K12" s="23">
+        <v>3.6459999999999999</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="36">
-        <v>-99.99</v>
-      </c>
-      <c r="E13" s="36">
-        <v>59.514000000000003</v>
-      </c>
-      <c r="F13" s="36">
-        <v>2.4420000000000002</v>
-      </c>
-      <c r="G13" s="36">
-        <v>7.5609999999999999</v>
-      </c>
-      <c r="H13" s="36">
-        <v>1.069</v>
-      </c>
-      <c r="I13" s="36">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="J13" s="36">
-        <v>2.0760000000000001</v>
-      </c>
-      <c r="K13" s="36">
-        <v>3.6459999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D13" s="23">
+        <v>-99.99</v>
+      </c>
+      <c r="E13" s="23">
+        <v>-99.99</v>
+      </c>
+      <c r="F13" s="23">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G13" s="23">
+        <v>-99.99</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0.114</v>
+      </c>
+      <c r="I13" s="23">
+        <v>-99.99</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0.315</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1372,7 +1368,7 @@
         <v>2.512</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1407,7 +1403,7 @@
         <v>1.613</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -5508,40 +5504,40 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -5557,11 +5553,11 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -5571,11 +5567,11 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5585,11 +5581,11 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="25">
         <v>5593</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5599,11 +5595,11 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="29">
         <v>44301</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5613,11 +5609,11 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="29">
         <v>44306</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5627,11 +5623,11 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -5641,11 +5637,11 @@
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="32">
         <v>1457.28</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -5662,30 +5658,30 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{A9470342-9082-6945-8C44-D1267B4B0C49}"/>
